--- a/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_python.xlsx
+++ b/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_python.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="572">
   <si>
     <t>task_id</t>
   </si>
@@ -1769,6 +1769,9 @@
 </t>
   </si>
   <si>
+    <t>FAIL1 1个测试用例未通过</t>
+  </si>
+  <si>
     <t xml:space="preserve">import os
 import json
 from typing import List
@@ -1950,6 +1953,9 @@
 </t>
   </si>
   <si>
+    <t>题目存在问题</t>
+  </si>
+  <si>
     <t>from typing import List, Tuple
 def calculate_red_proportion(pixels: List[Tuple[int, int, int]]) -&gt; float:
     """
@@ -2019,6 +2025,9 @@
 Ran 5 tests in 0.001s
 FAILED (failures=1)
 </t>
+  </si>
+  <si>
+    <t>测试用例问题</t>
   </si>
   <si>
     <t xml:space="preserve">import ctypes
@@ -2476,6 +2485,9 @@
 </t>
   </si>
   <si>
+    <t>模块为导入？</t>
+  </si>
+  <si>
     <t xml:space="preserve">def rainbowHexGenerator(num_intermediates: int, include_endpoints=False):
     """
     generates a color spectrum list containing the main rainbow colors and the gradient colors between them. The function takes two parameters: num_intermediates specifies the number of intermediate colors to be generated between each two major colors;include_endpoints determines whether to add a gradient from the last color back to the first color at the end of the color spectrum
@@ -2626,6 +2638,9 @@
                                 ^
 SyntaxError: invalid syntax
 </t>
+  </si>
+  <si>
+    <t>GPT生产的答案语法错误</t>
   </si>
   <si>
     <t xml:space="preserve">class BloomFilter:
@@ -3124,6 +3139,9 @@
 </t>
   </si>
   <si>
+    <t>GPT生产答案有问题</t>
+  </si>
+  <si>
     <t xml:space="preserve">class TreeNode:
     """
     binary tree node
@@ -3331,6 +3349,9 @@
 Ran 5 tests in 0.000s
 FAILED (errors=5)
 </t>
+  </si>
+  <si>
+    <t>datetime的问题</t>
   </si>
   <si>
     <t xml:space="preserve">from typing import List
@@ -3414,6 +3435,9 @@
 </t>
   </si>
   <si>
+    <t>导包问题</t>
+  </si>
+  <si>
     <t xml:space="preserve">def rename_file_path(path: str) -&gt; str:
     """
     Renames a Windows file path by replacing colons in the filename with underscores.
@@ -3594,6 +3618,9 @@
 </t>
   </si>
   <si>
+    <t>gpt生产的代码语法错误</t>
+  </si>
+  <si>
     <t xml:space="preserve">from typing import List
 def min_removals_to_make_unique(nums: List[int]) -&gt; int:
     """
@@ -3669,6 +3696,9 @@
 Ran 5 tests in 0.001s
 FAILED (failures=3)
 </t>
+  </si>
+  <si>
+    <t>题目问题 重新检查题目</t>
   </si>
   <si>
     <t xml:space="preserve">from typing import List
@@ -3867,6 +3897,9 @@
 Ran 5 tests in 0.000s
 FAILED (failures=2)
 </t>
+  </si>
+  <si>
+    <t>题目问题检查</t>
   </si>
   <si>
     <t xml:space="preserve">def probability_red_balls(x: int, n: int, m: int) -&gt; float:
@@ -4307,6 +4340,9 @@
 </t>
   </si>
   <si>
+    <t>没有对应的包</t>
+  </si>
+  <si>
     <t xml:space="preserve">import csv
 import os
 def csv_to_sql_insert(csv_file_path: str) -&gt; str:
@@ -4458,6 +4494,9 @@
 </t>
   </si>
   <si>
+    <t>题目有问题</t>
+  </si>
+  <si>
     <t xml:space="preserve">from typing import List
 def find_duplicate_ips(files: List[str], ignored_ips: set) -&gt; dict:
     """
@@ -4691,6 +4730,9 @@
     def topological_sort(courses: Iterable[Course]) -&gt; List[LeveledCourse]:
 NameError: name 'Course' is not defined
 </t>
+  </si>
+  <si>
+    <t>代码结构问题</t>
   </si>
   <si>
     <t xml:space="preserve">from typing import Dict
@@ -4926,6 +4968,9 @@
                ^
 SyntaxError: EOL while scanning string literal
 </t>
+  </si>
+  <si>
+    <t>GPT代码生产问题</t>
   </si>
   <si>
     <t xml:space="preserve">import numpy as np
@@ -5248,6 +5293,9 @@
 </t>
   </si>
   <si>
+    <t>测试用力问题</t>
+  </si>
+  <si>
     <t>import struct
 from typing import Union
 def convert_decimal_to_binary(decimal_value: float, bit_length: int) -&gt; Union[str, None]:
@@ -5359,6 +5407,9 @@
 Ran 5 tests in 0.002s
 FAILED (failures=5)
 </t>
+  </si>
+  <si>
+    <t>题目问题</t>
   </si>
   <si>
     <t>def rename_files(directory:str):
@@ -10228,15 +10279,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10386,12 +10436,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -10704,19 +10760,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10725,7 +10781,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10749,16 +10805,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -10767,95 +10823,109 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -11205,8 +11275,8 @@
   <sheetPr/>
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11215,4124 +11285,4238 @@
   </cols>
   <sheetData>
     <row r="1" ht="40.5" spans="1:12">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:12">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" ht="409.5" spans="1:12">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:12">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" ht="409.5" spans="1:12">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" ht="409.5" spans="1:12">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:12">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" ht="409.5" spans="1:12">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" ht="409.5" spans="1:12">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" ht="409.5" spans="1:12">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" ht="409.5" spans="1:12">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="1:12">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" ht="409.5" spans="1:12">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>18</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" ht="409.5" spans="1:12">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="1"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" ht="409.5" spans="1:12">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>1</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" ht="409.5" spans="1:12">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>21</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" ht="409.5" spans="1:12">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>22</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="1"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" ht="409.5" spans="1:12">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>23</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="1"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" ht="409.5" spans="1:12">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>24</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="3">
         <v>0</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" ht="409.5" spans="1:12">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>25</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" ht="409.5" spans="1:12">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>26</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="1"/>
+      <c r="L21" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="22" ht="409.5" spans="1:12">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>27</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="1">
+      <c r="H22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="J22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="1"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" ht="409.5" spans="1:12">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>28</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="1">
+      <c r="H23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="3">
         <v>1</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="J23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="1"/>
+      <c r="L23" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="24" ht="409.5" spans="1:12">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>31</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="1">
+      <c r="G24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="3">
         <v>1</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="J24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="1"/>
+      <c r="L24" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="25" ht="409.5" spans="1:12">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>32</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I25" s="1">
+      <c r="F25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="3">
         <v>1</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="J25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="1"/>
+      <c r="L25" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="26" ht="409.5" spans="1:12">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>33</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I26" s="1">
+      <c r="F26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="J26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="1"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" ht="409.5" spans="1:12">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>35</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I27" s="1">
+      <c r="F27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" ht="409.5" spans="1:12">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>36</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I28" s="1">
+      <c r="F28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="3">
         <v>0</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="1"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" ht="409.5" spans="1:12">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>37</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I29" s="1">
+      <c r="F29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29" s="3">
         <v>1</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K29" s="1" t="s">
+      <c r="J29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="1"/>
+      <c r="L29" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="30" ht="409.5" spans="1:12">
-      <c r="A30" s="2">
+    <row r="30" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="6">
         <v>38</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="E30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" s="6">
         <v>1</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K30" s="1" t="s">
+      <c r="J30" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="1"/>
+      <c r="L30" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="31" ht="409.5" spans="1:12">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>40</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="E31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" s="3">
         <v>1</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K31" s="1" t="s">
+      <c r="J31" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="1"/>
+      <c r="L31" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="32" ht="409.5" spans="1:12">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>41</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I32" s="1">
+      <c r="E32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K32" s="1" t="s">
+      <c r="J32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="1"/>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" ht="409.5" spans="1:12">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>42</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I33" s="1">
+      <c r="E33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="1"/>
+      <c r="L33" s="3"/>
     </row>
-    <row r="34" ht="409.5" spans="1:12">
-      <c r="A34" s="2">
+    <row r="34" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>43</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I34" s="1">
+      <c r="E34" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" s="6">
         <v>1</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="J34" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="1"/>
+      <c r="L34" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="35" ht="409.5" spans="1:12">
-      <c r="A35" s="2">
+    <row r="35" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>44</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I35" s="1">
+      <c r="E35" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="6">
         <v>1</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="J35" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="1"/>
+      <c r="L35" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="36" ht="409.5" spans="1:12">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>45</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I36" s="1">
+      <c r="E36" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I36" s="3">
         <v>1</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K36" s="1" t="s">
+      <c r="J36" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="1"/>
+      <c r="L36" s="3" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="37" ht="409.5" spans="1:12">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>46</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I37" s="1">
+      <c r="E37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37" s="3">
         <v>0</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="1"/>
+      <c r="L37" s="3"/>
     </row>
-    <row r="38" ht="317.9" spans="1:12">
-      <c r="A38" s="2">
+    <row r="38" ht="409.5" spans="1:12">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <v>47</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I38" s="1">
+      <c r="E38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" s="3">
         <v>1</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K38" s="1" t="s">
+      <c r="J38" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="1"/>
+      <c r="L38" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="39" ht="409.5" spans="1:12">
-      <c r="A39" s="2">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>51</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I39" s="1">
+      <c r="E39" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" s="3">
         <v>1</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K39" s="1" t="s">
+      <c r="J39" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="1"/>
+      <c r="L39" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="40" ht="409.5" spans="1:12">
-      <c r="A40" s="2">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>52</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I40" s="1">
+      <c r="E40" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" s="3">
         <v>0</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="1"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" ht="409.5" spans="1:12">
-      <c r="A41" s="2">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="3">
         <v>53</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I41" s="1">
+      <c r="E41" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="1"/>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" ht="409.5" spans="1:12">
-      <c r="A42" s="2">
+      <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <v>54</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I42" s="1">
+      <c r="E42" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I42" s="3">
         <v>1</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="J42" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="1"/>
+      <c r="L42" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="43" ht="409.5" spans="1:12">
-      <c r="A43" s="2">
+    <row r="43" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="6">
         <v>55</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" s="1">
+      <c r="E43" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I43" s="6">
         <v>1</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K43" s="1" t="s">
+      <c r="J43" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="1"/>
+      <c r="L43" s="6" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="44" ht="409.5" spans="1:12">
-      <c r="A44" s="2">
+      <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>56</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I44" s="1">
+      <c r="E44" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="1"/>
+      <c r="L44" s="3"/>
     </row>
     <row r="45" ht="409.5" spans="1:12">
-      <c r="A45" s="2">
+      <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <v>57</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I45" s="1">
+      <c r="E45" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K45" s="1" t="s">
+      <c r="J45" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="1"/>
+      <c r="L45" s="3"/>
     </row>
-    <row r="46" ht="409.5" spans="1:12">
-      <c r="A46" s="2">
+    <row r="46" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="6">
         <v>58</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I46" s="1">
+      <c r="E46" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I46" s="6">
         <v>1</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K46" s="1" t="s">
+      <c r="J46" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="1"/>
+      <c r="L46" s="6" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="47" ht="409.5" spans="1:12">
-      <c r="A47" s="2">
+      <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <v>59</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I47" s="1">
+      <c r="E47" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="1"/>
+      <c r="L47" s="3"/>
     </row>
     <row r="48" ht="409.5" spans="1:12">
-      <c r="A48" s="2">
+      <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <v>60</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I48" s="1">
+      <c r="E48" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="J48" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="1"/>
+      <c r="L48" s="3"/>
     </row>
     <row r="49" ht="409.5" spans="1:12">
-      <c r="A49" s="2">
+      <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <v>62</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I49" s="1">
+      <c r="E49" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="1"/>
+      <c r="L49" s="3"/>
     </row>
-    <row r="50" ht="194" spans="1:12">
-      <c r="A50" s="2">
+    <row r="50" ht="409.5" spans="1:12">
+      <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="3">
         <v>63</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I50" s="1">
+      <c r="E50" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I50" s="3">
         <v>1</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K50" s="1" t="s">
+      <c r="J50" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="1"/>
+      <c r="L50" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="51" ht="409.5" spans="1:12">
-      <c r="A51" s="2">
+    <row r="51" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="6">
         <v>64</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I51" s="1">
+      <c r="E51" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I51" s="6">
         <v>1</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K51" s="1" t="s">
+      <c r="J51" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K51" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L51" s="1"/>
+      <c r="L51" s="6" t="s">
+        <v>268</v>
+      </c>
     </row>
-    <row r="52" ht="290.9" spans="1:12">
-      <c r="A52" s="2">
+    <row r="52" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="6">
         <v>65</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I52" s="1">
+      <c r="E52" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I52" s="6">
         <v>1</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K52" s="1" t="s">
+      <c r="J52" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="K52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L52" s="1"/>
+      <c r="L52" s="6" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="53" ht="409.5" spans="1:12">
-      <c r="A53" s="2">
+      <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="3">
         <v>66</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I53" s="1">
+      <c r="E53" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I53" s="3">
         <v>1</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K53" s="1" t="s">
+      <c r="J53" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="1"/>
+      <c r="L53" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="54" ht="409.5" spans="1:12">
-      <c r="A54" s="2">
+      <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="3">
         <v>67</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I54" s="1">
+      <c r="E54" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="1"/>
+      <c r="L54" s="3"/>
     </row>
     <row r="55" ht="409.5" spans="1:12">
-      <c r="A55" s="2">
+      <c r="A55" s="4">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="3">
         <v>68</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I55" s="1">
+      <c r="E55" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I55" s="3">
         <v>0</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="1"/>
+      <c r="L55" s="3"/>
     </row>
     <row r="56" ht="409.5" spans="1:12">
-      <c r="A56" s="2">
+      <c r="A56" s="4">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="3">
         <v>70</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="I56" s="1">
+      <c r="E56" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I56" s="3">
         <v>1</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K56" s="1" t="s">
+      <c r="J56" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K56" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="1"/>
+      <c r="L56" s="3" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="57" ht="409.5" spans="1:12">
-      <c r="A57" s="2">
+      <c r="A57" s="4">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="3">
         <v>71</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I57" s="1">
+      <c r="E57" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K57" s="1" t="s">
+      <c r="J57" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L57" s="1"/>
+      <c r="L57" s="3"/>
     </row>
     <row r="58" ht="409.5" spans="1:12">
-      <c r="A58" s="2">
+      <c r="A58" s="4">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="3">
         <v>72</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I58" s="1">
+      <c r="E58" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="K58" s="1" t="s">
+      <c r="J58" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L58" s="1"/>
+      <c r="L58" s="3"/>
     </row>
     <row r="59" ht="409.5" spans="1:12">
-      <c r="A59" s="2">
+      <c r="A59" s="4">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="3">
         <v>73</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I59" s="1">
+      <c r="E59" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I59" s="3">
         <v>1</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K59" s="1" t="s">
+      <c r="J59" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L59" s="1"/>
+      <c r="L59" s="3" t="s">
+        <v>309</v>
+      </c>
     </row>
-    <row r="60" ht="61.4" spans="1:12">
-      <c r="A60" s="2">
+    <row r="60" s="2" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="7">
         <v>74</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="I60" s="1">
+      <c r="E60" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="I60" s="7">
         <v>1</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K60" s="1" t="s">
+      <c r="J60" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="K60" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L60" s="1"/>
+      <c r="L60" s="8" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="61" ht="409.5" spans="1:12">
-      <c r="A61" s="2">
+    <row r="61" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="6">
         <v>75</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I61" s="1">
+      <c r="E61" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I61" s="6">
         <v>1</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K61" s="1" t="s">
+      <c r="J61" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L61" s="1"/>
+      <c r="L61" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="62" ht="409.5" spans="1:12">
-      <c r="A62" s="2">
+    <row r="62" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="6">
         <v>76</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I62" s="1">
+      <c r="E62" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I62" s="6">
         <v>1</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="K62" s="1" t="s">
+      <c r="J62" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="K62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L62" s="1"/>
+      <c r="L62" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="63" ht="409.5" spans="1:12">
-      <c r="A63" s="2">
+      <c r="A63" s="4">
         <v>61</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="3">
         <v>77</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I63" s="1">
+      <c r="E63" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I63" s="3">
         <v>1</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K63" s="1" t="s">
+      <c r="J63" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="K63" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L63" s="1"/>
+      <c r="L63" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="64" ht="409.5" spans="1:12">
-      <c r="A64" s="2">
+      <c r="A64" s="4">
         <v>62</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="3">
         <v>78</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="E64" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A65" s="5">
+        <v>63</v>
+      </c>
+      <c r="B65" s="6">
+        <v>79</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="I65" s="6">
+        <v>1</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K64" s="1" t="s">
+    </row>
+    <row r="66" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A66" s="5">
+        <v>64</v>
+      </c>
+      <c r="B66" s="6">
+        <v>80</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I66" s="6">
+        <v>1</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="K66" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L64" s="1"/>
-    </row>
-    <row r="65" ht="409.5" spans="1:12">
-      <c r="A65" s="2">
-        <v>63</v>
-      </c>
-      <c r="B65" s="1">
-        <v>79</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="1"/>
-    </row>
-    <row r="66" ht="409.5" spans="1:12">
-      <c r="A66" s="2">
-        <v>64</v>
-      </c>
-      <c r="B66" s="1">
-        <v>80</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66" s="1"/>
+      <c r="L66" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="67" ht="409.5" spans="1:12">
-      <c r="A67" s="2">
+      <c r="A67" s="4">
         <v>65</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="3">
         <v>81</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I67" s="1">
+      <c r="E67" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I67" s="3">
         <v>1</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="K67" s="1" t="s">
+      <c r="J67" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="K67" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L67" s="1"/>
+      <c r="L67" s="3" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="68" ht="409.5" spans="1:12">
-      <c r="A68" s="2">
+      <c r="A68" s="4">
         <v>66</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="3">
         <v>82</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I68" s="1">
+      <c r="E68" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I68" s="3">
         <v>1</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K68" s="1" t="s">
+      <c r="J68" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="K68" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L68" s="1"/>
+      <c r="L68" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="69" ht="409.5" spans="1:12">
-      <c r="A69" s="2">
+      <c r="A69" s="4">
         <v>67</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="3">
         <v>83</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I69" s="1">
+      <c r="E69" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I69" s="3">
         <v>0</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="K69" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L69" s="1"/>
+      <c r="L69" s="3"/>
     </row>
     <row r="70" ht="409.5" spans="1:12">
-      <c r="A70" s="2">
+      <c r="A70" s="4">
         <v>68</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="3">
         <v>84</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="I70" s="1">
+      <c r="E70" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I70" s="3">
         <v>0</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K70" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L70" s="1"/>
+      <c r="L70" s="3"/>
     </row>
     <row r="71" ht="409.5" spans="1:12">
-      <c r="A71" s="2">
+      <c r="A71" s="4">
         <v>69</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="3">
         <v>85</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I71" s="1">
+      <c r="E71" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I71" s="3">
         <v>1</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="K71" s="1" t="s">
+      <c r="J71" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K71" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L71" s="1"/>
+      <c r="L71" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="72" ht="409.5" spans="1:12">
-      <c r="A72" s="2">
+      <c r="A72" s="4">
         <v>70</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="3">
         <v>86</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I72" s="1">
+      <c r="E72" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K72" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L72" s="1"/>
+      <c r="L72" s="3"/>
     </row>
-    <row r="73" ht="409.5" spans="1:12">
-      <c r="A73" s="2">
+    <row r="73" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A73" s="5">
         <v>71</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="6">
         <v>211</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I73" s="1">
+      <c r="E73" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I73" s="6">
         <v>1</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K73" s="1" t="s">
+      <c r="J73" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="K73" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L73" s="1"/>
+      <c r="L73" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="74" ht="409.5" spans="1:12">
-      <c r="A74" s="2">
+      <c r="A74" s="4">
         <v>72</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="3">
         <v>213</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="I74" s="1">
+      <c r="E74" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I74" s="3">
         <v>0</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K74" s="1" t="s">
+      <c r="J74" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L74" s="1"/>
+      <c r="L74" s="3"/>
     </row>
     <row r="75" ht="409.5" spans="1:12">
-      <c r="A75" s="2">
+      <c r="A75" s="4">
         <v>73</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="3">
         <v>214</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I75" s="1">
+      <c r="E75" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I75" s="3">
         <v>1</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="K75" s="1" t="s">
+      <c r="J75" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="K75" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L75" s="1"/>
+      <c r="L75" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="76" ht="409.5" spans="1:12">
-      <c r="A76" s="2">
+      <c r="A76" s="4">
         <v>74</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="3">
         <v>215</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I76" s="1">
+      <c r="E76" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I76" s="3">
         <v>1</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="K76" s="1" t="s">
+      <c r="J76" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K76" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L76" s="1"/>
+      <c r="L76" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="77" ht="409.5" spans="1:12">
-      <c r="A77" s="2">
+      <c r="A77" s="4">
         <v>75</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="3">
         <v>216</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="I77" s="1">
+      <c r="E77" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I77" s="3">
         <v>1</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K77" s="1" t="s">
+      <c r="J77" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K77" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L77" s="1"/>
+      <c r="L77" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="78" ht="409.5" spans="1:12">
-      <c r="A78" s="2">
+    <row r="78" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A78" s="5">
         <v>76</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="6">
         <v>217</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I78" s="1">
+      <c r="E78" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="I78" s="6">
         <v>1</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="K78" s="1" t="s">
+      <c r="J78" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L78" s="1"/>
+      <c r="L78" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="79" ht="409.5" spans="1:12">
-      <c r="A79" s="2">
+      <c r="A79" s="4">
         <v>77</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="3">
         <v>219</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I79" s="1">
+      <c r="E79" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I79" s="3">
         <v>0</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="K79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L79" s="1"/>
+      <c r="L79" s="3"/>
     </row>
-    <row r="80" ht="341.2" spans="1:12">
-      <c r="A80" s="2">
+    <row r="80" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A80" s="5">
         <v>78</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="6">
         <v>220</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="I80" s="1">
+      <c r="E80" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I80" s="6">
         <v>1</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K80" s="1" t="s">
+      <c r="J80" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="K80" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L80" s="1"/>
+      <c r="L80" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="81" ht="409.5" spans="1:12">
-      <c r="A81" s="2">
+      <c r="A81" s="4">
         <v>79</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="3">
         <v>221</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="I81" s="1">
+      <c r="E81" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K81" s="1" t="s">
+      <c r="J81" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="K81" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L81" s="1"/>
+      <c r="L81" s="3"/>
     </row>
     <row r="82" ht="409.5" spans="1:12">
-      <c r="A82" s="2">
+      <c r="A82" s="4">
         <v>80</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="3">
         <v>224</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="I82" s="1">
+      <c r="E82" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="I82" s="3">
         <v>1</v>
       </c>
-      <c r="J82" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="K82" s="1" t="s">
+      <c r="J82" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K82" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L82" s="1"/>
+      <c r="L82" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="83" ht="409.5" spans="1:12">
-      <c r="A83" s="2">
+    <row r="83" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A83" s="5">
         <v>81</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="6">
         <v>227</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="I83" s="1">
+      <c r="E83" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I83" s="6">
         <v>1</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="K83" s="1" t="s">
+      <c r="J83" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="K83" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L83" s="1"/>
+      <c r="L83" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="84" ht="409.5" spans="1:12">
-      <c r="A84" s="2">
+    <row r="84" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A84" s="5">
         <v>82</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="6">
         <v>229</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="I84" s="1">
+      <c r="E84" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I84" s="6">
         <v>1</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="K84" s="1" t="s">
+      <c r="J84" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="K84" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L84" s="1"/>
+      <c r="L84" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="85" ht="409.5" spans="1:12">
-      <c r="A85" s="2">
+    <row r="85" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A85" s="5">
         <v>83</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="6">
         <v>230</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="I85" s="1">
+      <c r="E85" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="I85" s="6">
         <v>1</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="K85" s="1" t="s">
+      <c r="J85" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="K85" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L85" s="1"/>
+      <c r="L85" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="86" ht="409.5" spans="1:12">
-      <c r="A86" s="2">
+    <row r="86" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A86" s="5">
         <v>84</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="6">
         <v>231</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="I86" s="1">
+      <c r="E86" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="I86" s="6">
         <v>1</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K86" s="1" t="s">
+      <c r="J86" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="K86" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L86" s="1"/>
+      <c r="L86" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="87" ht="409.5" spans="1:12">
-      <c r="A87" s="2">
+      <c r="A87" s="4">
         <v>85</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="3">
         <v>232</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="I87" s="1">
+      <c r="E87" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="I87" s="3">
         <v>1</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="K87" s="1" t="s">
+      <c r="J87" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K87" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L87" s="1"/>
+      <c r="L87" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="88" ht="409.5" spans="1:12">
-      <c r="A88" s="2">
+    <row r="88" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A88" s="5">
         <v>86</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="6">
         <v>233</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="I88" s="1">
+      <c r="E88" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="I88" s="6">
         <v>1</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K88" s="1" t="s">
+      <c r="J88" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="K88" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L88" s="1"/>
+      <c r="L88" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="89" ht="409.5" spans="1:12">
-      <c r="A89" s="2">
+      <c r="A89" s="4">
         <v>87</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="3">
         <v>235</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="I89" s="1">
+      <c r="E89" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="K89" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L89" s="1"/>
+      <c r="L89" s="3"/>
     </row>
-    <row r="90" ht="409.5" spans="1:12">
-      <c r="A90" s="2">
+    <row r="90" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A90" s="5">
         <v>88</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="6">
         <v>240</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I90" s="1">
+      <c r="E90" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="I90" s="6">
         <v>1</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K90" s="1" t="s">
+      <c r="J90" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="K90" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L90" s="1"/>
+      <c r="L90" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="91" ht="409.5" spans="1:12">
-      <c r="A91" s="2">
+    <row r="91" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A91" s="5">
         <v>89</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="6">
         <v>241</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I91" s="1">
+      <c r="E91" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="I91" s="6">
         <v>1</v>
       </c>
-      <c r="J91" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="K91" s="1" t="s">
+      <c r="J91" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K91" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L91" s="1"/>
+      <c r="L91" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="92" ht="409.5" spans="1:12">
-      <c r="A92" s="2">
+      <c r="A92" s="4">
         <v>90</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="3">
         <v>244</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="I92" s="1">
+      <c r="E92" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="I92" s="3">
         <v>1</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="K92" s="1" t="s">
+      <c r="J92" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="K92" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L92" s="1"/>
+      <c r="L92" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="93" ht="368.2" spans="1:12">
-      <c r="A93" s="2">
+    <row r="93" ht="409.5" spans="1:12">
+      <c r="A93" s="4">
         <v>91</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="3">
         <v>248</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="I93" s="1">
+      <c r="E93" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I93" s="3">
         <v>1</v>
       </c>
-      <c r="J93" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="K93" s="1" t="s">
+      <c r="J93" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="K93" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L93" s="1"/>
+      <c r="L93" s="3"/>
     </row>
-    <row r="94" ht="409.5" spans="1:12">
-      <c r="A94" s="2">
+    <row r="94" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A94" s="5">
         <v>92</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="6">
         <v>249</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="I94" s="1">
+      <c r="E94" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="I94" s="6">
         <v>1</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="K94" s="1" t="s">
+      <c r="J94" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="K94" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L94" s="1"/>
+      <c r="L94" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="95" ht="409.5" spans="1:12">
-      <c r="A95" s="2">
+      <c r="A95" s="4">
         <v>93</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="3">
         <v>250</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="I95" s="1">
+      <c r="E95" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I95" s="3">
         <v>0</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="K95" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L95" s="1"/>
+      <c r="L95" s="3"/>
     </row>
-    <row r="96" ht="409.5" spans="1:12">
-      <c r="A96" s="2">
+    <row r="96" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A96" s="5">
         <v>94</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="6">
         <v>252</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I96" s="1">
+      <c r="E96" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I96" s="6">
         <v>1</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="K96" s="1" t="s">
+      <c r="J96" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="K96" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L96" s="1"/>
+      <c r="L96" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="97" ht="409.5" spans="1:12">
-      <c r="A97" s="2">
+    <row r="97" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A97" s="5">
         <v>95</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="6">
         <v>253</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I97" s="1">
+      <c r="E97" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="I97" s="6">
         <v>1</v>
       </c>
-      <c r="J97" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="K97" s="1" t="s">
+      <c r="J97" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="K97" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L97" s="1"/>
+      <c r="L97" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="98" ht="409.5" spans="1:12">
-      <c r="A98" s="2">
+      <c r="A98" s="4">
         <v>96</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="3">
         <v>255</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="I98" s="1">
+      <c r="E98" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="I98" s="3">
         <v>0</v>
       </c>
-      <c r="J98" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="K98" s="1" t="s">
+      <c r="J98" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="K98" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L98" s="1"/>
+      <c r="L98" s="3"/>
     </row>
     <row r="99" ht="409.5" spans="1:12">
-      <c r="A99" s="2">
+      <c r="A99" s="4">
         <v>97</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="3">
         <v>256</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I99" s="1">
+      <c r="E99" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="I99" s="3">
         <v>0</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="J99" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="K99" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L99" s="1"/>
+      <c r="L99" s="3"/>
     </row>
     <row r="100" ht="409.5" spans="1:12">
-      <c r="A100" s="2">
+      <c r="A100" s="4">
         <v>98</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="3">
         <v>258</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I100" s="1">
+      <c r="E100" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="I100" s="3">
         <v>1</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="K100" s="1" t="s">
+      <c r="J100" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L100" s="1"/>
+      <c r="L100" s="3" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="101" ht="409.5" spans="1:12">
-      <c r="A101" s="2">
+      <c r="A101" s="4">
         <v>99</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="3">
         <v>259</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="I101" s="1">
+      <c r="E101" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="I101" s="3">
         <v>1</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="K101" s="1" t="s">
+      <c r="J101" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L101" s="1"/>
+      <c r="L101" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="102" ht="409.5" spans="1:12">
-      <c r="A102" s="2">
+    <row r="102" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A102" s="5">
         <v>100</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="6">
         <v>260</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I102" s="1">
+      <c r="E102" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="I102" s="6">
         <v>1</v>
       </c>
-      <c r="J102" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="K102" s="1" t="s">
+      <c r="J102" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="K102" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L102" s="1"/>
+      <c r="L102" s="6" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="103" ht="409.5" spans="1:12">
-      <c r="A103" s="2">
+      <c r="A103" s="4">
         <v>101</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="3">
         <v>262</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="I103" s="1">
+      <c r="E103" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="I103" s="3">
         <v>1</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="K103" s="1" t="s">
+      <c r="J103" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="K103" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L103" s="1"/>
+      <c r="L103" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="104" ht="409.5" spans="1:12">
-      <c r="A104" s="2">
+      <c r="A104" s="4">
         <v>102</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="3">
         <v>263</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="I104" s="1">
+      <c r="E104" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="I104" s="3">
         <v>0</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="J104" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="K104" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L104" s="1"/>
+      <c r="L104" s="3"/>
     </row>
     <row r="105" ht="409.5" spans="1:12">
-      <c r="A105" s="2">
+      <c r="A105" s="4">
         <v>103</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="3">
         <v>266</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I105" s="1">
+      <c r="E105" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="I105" s="3">
         <v>1</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="K105" s="1" t="s">
+      <c r="J105" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="K105" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L105" s="1"/>
+      <c r="L105" s="3" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="106" ht="409.5" spans="1:12">
-      <c r="A106" s="2">
+      <c r="A106" s="4">
         <v>104</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="3">
         <v>267</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I106" s="1">
+      <c r="E106" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="I106" s="3">
         <v>0</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="J106" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="K106" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L106" s="1"/>
+      <c r="L106" s="3"/>
     </row>
     <row r="107" ht="409.5" spans="1:12">
-      <c r="A107" s="2">
+      <c r="A107" s="4">
         <v>105</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="3">
         <v>268</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="I107" s="1">
+      <c r="E107" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="I107" s="3">
         <v>0</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="J107" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K107" s="1" t="s">
+      <c r="K107" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L107" s="1"/>
+      <c r="L107" s="3"/>
     </row>
     <row r="108" ht="409.5" spans="1:12">
-      <c r="A108" s="2">
+      <c r="A108" s="4">
         <v>106</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="3">
         <v>269</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="I108" s="1">
+      <c r="E108" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="I108" s="3">
         <v>1</v>
       </c>
-      <c r="J108" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="K108" s="1" t="s">
+      <c r="J108" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="K108" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L108" s="1"/>
+      <c r="L108" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="109" ht="409.5" spans="1:12">
-      <c r="A109" s="2">
+      <c r="A109" s="4">
         <v>107</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="3">
         <v>281</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="I109" s="1">
+      <c r="E109" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="I109" s="3">
         <v>1</v>
       </c>
-      <c r="J109" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="K109" s="1" t="s">
+      <c r="J109" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="K109" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L109" s="1"/>
+      <c r="L109" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="110" ht="409.5" spans="1:12">
-      <c r="A110" s="2">
+      <c r="A110" s="4">
         <v>108</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="3">
         <v>282</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I110" s="1">
+      <c r="E110" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I110" s="3">
         <v>0</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="J110" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K110" s="1" t="s">
+      <c r="K110" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L110" s="1"/>
+      <c r="L110" s="3"/>
     </row>
     <row r="111" ht="409.5" spans="1:12">
-      <c r="A111" s="2">
+      <c r="A111" s="4">
         <v>109</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="3">
         <v>286</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I111" s="1">
+      <c r="E111" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="I111" s="3">
         <v>0</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="J111" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K111" s="1" t="s">
+      <c r="K111" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L111" s="1"/>
+      <c r="L111" s="3"/>
     </row>
     <row r="112" ht="409.5" spans="1:12">
-      <c r="A112" s="2">
+      <c r="A112" s="4">
         <v>110</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="3">
         <v>288</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I112" s="1">
+      <c r="E112" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="I112" s="3">
         <v>0</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="J112" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K112" s="1" t="s">
+      <c r="K112" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L112" s="1"/>
+      <c r="L112" s="3"/>
     </row>
     <row r="113" ht="409.5" spans="1:12">
-      <c r="A113" s="2">
+      <c r="A113" s="4">
         <v>111</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="3">
         <v>290</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I113" s="1">
+      <c r="E113" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="I113" s="3">
         <v>1</v>
       </c>
-      <c r="J113" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="K113" s="1" t="s">
+      <c r="J113" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="K113" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L113" s="1"/>
+      <c r="L113" s="3" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="114" ht="409.5" spans="1:12">
-      <c r="A114" s="2">
+      <c r="A114" s="4">
         <v>112</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="3">
         <v>291</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="I114" s="1">
+      <c r="E114" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="I114" s="3">
         <v>0</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="K114" s="1" t="s">
+      <c r="J114" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="K114" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L114" s="1"/>
+      <c r="L114" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_python.xlsx
+++ b/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_python.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26250" windowHeight="16725"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="559">
   <si>
     <t>task_id</t>
   </si>
@@ -240,101 +240,6 @@
   </si>
   <si>
     <t>file not found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import math
-def quaternion_to_yaw(w: float, x: float, y: float, z: float) -&gt; float:
-    """
-    The quaternion is converted to a selected yaw Angle around the z-axis
-    Args:
-        w (float): The scalar component of the quaternion.
-        x (float): The x-component of the quaternion vector part.
-        y (float): The y-component of the quaternion vector part.
-        z (float): The z-component of the quaternion vector part.
-    Returns: The yaw angle in radians.
-    """
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import unittest
-import math
-class TestQuaternionToYaw(unittest.TestCase):
-    def test_zero_rotation(self):
-        # Quaternion for no rotation
-        w, x, y, z = 1, 0, 0, 0
-        expected_yaw = 0
-        result = quaternion_to_yaw(w, x, y, z)
-        self.assertAlmostEqual(result, expected_yaw, msg="Failed zero rotation test.js")
-    def test_90_degrees_rotation(self):
-        # Quaternion for 90 degrees rotation around z-axis
-        w, x, y, z = math.cos(math.pi / 4), 0, 0, math.sin(math.pi / 4)
-        expected_yaw = math.pi / 2
-        result = quaternion_to_yaw(w, x, y, z)
-        self.assertAlmostEqual(result, expected_yaw, msg="Failed 90 degrees rotation test.js")
-    def test_180_degrees_rotation(self):
-        # Quaternion for 180 degrees rotation around z-axis
-        w, x, y, z = 0, 0, 0, 1
-        expected_yaw = math.pi
-        result = quaternion_to_yaw(w, x, y, z)
-        self.assertAlmostEqual(result, expected_yaw, msg="Failed 180 degrees rotation test.js")
-    def test_270_degrees_rotation(self):
-        # Quaternion for 270 degrees (or -90 degrees) rotation around z-axis
-        w, x, y, z = math.cos(-math.pi / 4), 0, 0, math.sin(-math.pi / 4)
-        expected_yaw = -math.pi / 2
-        result = quaternion_to_yaw(w, x, y, z)
-        self.assertAlmostEqual(result, expected_yaw, msg="Failed 270 degrees rotation test.js")
-    def test_negative_rotation(self):
-        # Quaternion for negative rotation around z-axis
-        w, x, y, z = math.cos(-math.pi / 6), 0, 0, math.sin(-math.pi / 6)
-        expected_yaw = -math.pi / 3
-        result = quaternion_to_yaw(w, x, y, z)
-        self.assertAlmostEqual(result, expected_yaw, msg="Failed negative rotation test.js")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">please write a python function the function signature as below import math
-def quaternion_to_yaw(w: float, x: float, y: float, z: float) -&gt; float:
-    """
-    The quaternion is converted to a selected yaw Angle around the z-axis
-    Args:
-        w (float): The scalar component of the quaternion.
-        x (float): The x-component of the quaternion vector part.
-        y (float): The y-component of the quaternion vector part.
-        z (float): The z-component of the quaternion vector part.
-    Returns: The yaw angle in radians.
-    """
-</t>
-  </si>
-  <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'import math\n\ndef quaternion_to_yaw(w: float, x: float, y: float, z: float) -&gt; float:\n    """\n    The quaternion is converted to a selected yaw Angle around the z-axis\n    Args:\n        w (float): The scalar component of the quaternion.\n        x (float): The x-component of the quaternion vector part.\n        y (float): The y-component of the quaternion vector part.\n        z (float): The z-component of the quaternion vector part.\n\n    Returns: The yaw angle in radians.\n    """\n    yaw = math.atan2(2.0 * (y * z + w * x), w * w + x * x - y * y - z * z)\n    return yaw'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.FFF.
-======================================================================
-FAIL: test_270_degrees_rotation (__main__.TestQuaternionToYaw)
-----------------------------------------------------------------------
-Traceback (most recent call last):
-  File "X:\code\python_project\RealisticEval\RealisticEval-Data\envs\python\temp\temp.py", line 47, in test_270_degrees_rotation
-    self.assertAlmostEqual(result, expected_yaw, msg="Failed 270 degrees rotation test.js")
-AssertionError: 0.0 != -1.5707963267948966 within 7 places (1.5707963267948966 difference) : Failed 270 degrees rotation test.js
-======================================================================
-FAIL: test_90_degrees_rotation (__main__.TestQuaternionToYaw)
-----------------------------------------------------------------------
-Traceback (most recent call last):
-  File "X:\code\python_project\RealisticEval\RealisticEval-Data\envs\python\temp\temp.py", line 33, in test_90_degrees_rotation
-    self.assertAlmostEqual(result, expected_yaw, msg="Failed 90 degrees rotation test.js")
-AssertionError: 0.0 != 1.5707963267948966 within 7 places (1.5707963267948966 difference) : Failed 90 degrees rotation test.js
-======================================================================
-FAIL: test_negative_rotation (__main__.TestQuaternionToYaw)
-----------------------------------------------------------------------
-Traceback (most recent call last):
-  File "X:\code\python_project\RealisticEval\RealisticEval-Data\envs\python\temp\temp.py", line 54, in test_negative_rotation
-    self.assertAlmostEqual(result, expected_yaw, msg="Failed negative rotation test.js")
-AssertionError: 0.0 != -1.0471975511965976 within 7 places (1.0471975511965976 difference) : Failed negative rotation test.js
-----------------------------------------------------------------------
-Ran 5 tests in 0.001s
-FAILED (failures=3)
-</t>
   </si>
   <si>
     <t>from typing import List
@@ -1008,7 +913,7 @@
 </t>
   </si>
   <si>
-    <t>运行错误直接</t>
+    <t>测试用例修改后pass</t>
   </si>
   <si>
     <t>def haversine_distance(lat1: float, lon1: float, lat2: float, lon2: float) -&gt; float:
@@ -1262,6 +1167,9 @@
 Ran 5 tests in 0.001s
 FAILED (failures=5)
 </t>
+  </si>
+  <si>
+    <t>运行错误直接</t>
   </si>
   <si>
     <t xml:space="preserve">from typing import List
@@ -6359,140 +6267,6 @@
     <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'from typing import List\n\ndef bresenham_line(x1: int, y1: int, x2: int, y2: int) -&gt; List[tuple]:\n    points = []\n    dx = abs(x2 - x1)\n    dy = abs(y2 - y1)\n    sx = 1 if x1 &lt; x2 else -1\n    sy = 1 if y1 &lt; y2 else -1\n    err = dx - dy\n\n    while True:\n        points.append((x1, y1))\n        if x1 == x2 and y1 == y2:\n            break\n        err2 = err * 2\n        if err2 &gt; -dy:\n            err -= dy\n            x1 += sx\n        if err2 &lt; dx:\n            err += dx\n            y1 += sy\n\n    return points'}]</t>
   </si>
   <si>
-    <t xml:space="preserve">from typing import List, Dict
-def extract_parameters_from_file(file_path:str) -&gt; List[Dict]:
-    """
-    extract the names, descriptions, and units of the parameters from a Fortran file, put this information in the form of a list, where each element is a dictionary, and return the list
-    Args:
-        file_path (str): Path to the Fortran file.
-    Returns:
-        list of dict: A list of dictionaries, each containing the variable name,
-                  description, and units of a parameter.
-    """
-</t>
-  </si>
-  <si>
-    <t>import unittest
-from unittest.mock import mock_open, patch
-class TestExtractParametersFromFile(unittest.TestCase):
-    def test_standard_case(self):
-        """ Test with a well-formed Fortran file content. """
-        file_content = "real(r8), target, allocatable :: temp(3) ! Temperature profile, [K]"
-        m = mock_open(read_data=file_content)
-        with patch('builtins.open', m):
-            result = extract_parameters_from_file('dummy.f90')
-            expected = [{'variable_name': 'temp', 'description': 'Temperature profile', 'units': 'K'}]
-            self.assertEqual(result, expected)
-    def test_multiple_parameters(self):
-        """ Test with multiple parameters in file content. """
-        file_content = """
-        real(r8), target, allocatable :: temp ! Ambient temperature, [C]
-        real(r8), target, allocatable :: pressure(10) ! Atmospheric pressure, [atm]
-        """
-        m = mock_open(read_data=file_content)
-        with patch('builtins.open', m):
-            result = extract_parameters_from_file('dummy.f90')
-            expected = [
-                {'variable_name': 'temp', 'description': 'Ambient temperature', 'units': 'C'},
-                {'variable_name': 'pressure', 'description': 'Atmospheric pressure', 'units': 'atm'}
-            ]
-            self.assertEqual(result, expected)
-    def test_no_parameters(self):
-        """ Test with no parameter declarations in file content. """
-        file_content = "This file contains no relevant parameters."
-        m = mock_open(read_data=file_content)
-        with patch('builtins.open', m):
-            result = extract_parameters_from_file('dummy.f90')
-            self.assertEqual(result, [])
-    def test_incorrect_format(self):
-        """ Test with incorrectly formatted parameter declarations. """
-        file_content = "real(r8), target, allocatable :: temp ! Incorrect format here"
-        m = mock_open(read_data=file_content)
-        with patch('builtins.open', m):
-            result = extract_parameters_from_file('dummy.f90')
-            self.assertEqual(result, [])
-    def test_complex_structure(self):
-        """ Test with complex and correct declarations. """
-        file_content = """
-        real(r8), target, allocatable :: temp(5, 10) ! Grid temperature, [K]
-        real(r8), target, allocatable :: velocity ! Wind velocity, [m/s]
-        """
-        m = mock_open(read_data=file_content)
-        with patch('builtins.open', m):
-            result = extract_parameters_from_file('dummy.f90')
-            expected = [
-                {'variable_name': 'temp', 'description': 'Grid temperature', 'units': 'K'},
-                {'variable_name': 'velocity', 'description': 'Wind velocity', 'units': 'm/s'}
-            ]
-            self.assertEqual(result, expected)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">please write a python function the function signature as below from typing import List, Dict
-def extract_parameters_from_file(file_path:str) -&gt; List[Dict]:
-    """
-    extract the names, descriptions, and units of the parameters from a Fortran file, put this information in the form of a list, where each element is a dictionary, and return the list
-    Args:
-        file_path (str): Path to the Fortran file.
-    Returns:
-        list of dict: A list of dictionaries, each containing the variable name,
-                  description, and units of a parameter.
-    """
-</t>
-  </si>
-  <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': "from typing import List, Dict\nimport re\n\ndef extract_parameters_from_file(file_path: str) -&gt; List[Dict]:\n    parameters = []\n\n    with open(file_path, 'r') as file:\n        content = file.readlines()\n\n    param_pattern = re.compile(r'\\s*([^!]+)\\s*!?\\s*description:\\s*(.*?)\\s*!?\\s*units:\\s*(.*?)\\s*$')\n\n    for line in content:\n        match = param_pattern.search(line)\n        if match:\n            param_name = match.group(1).strip()\n            description = match.group(2).strip()\n            units = match.group(3).strip()\n            parameters.append({\n                'name': param_name,\n                'description': description,\n                'units': units\n            })\n\n    return parameters"}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.F.F
-======================================================================
-FAIL: test_complex_structure (__main__.TestExtractParametersFromFile)
-Test with complex and correct declarations.
-----------------------------------------------------------------------
-Traceback (most recent call last):
-  File "X:\code\python_project\RealisticEval\RealisticEval-Data\envs\python\temp\temp.py", line 83, in test_complex_structure
-    self.assertEqual(result, expected)
-AssertionError: Lists differ: [] != [{'variable_name': 'temp', 'description': [108 chars]/s'}]
-Second list contains 2 additional elements.
-First extra element 0:
-{'variable_name': 'temp', 'description': 'Grid temperature', 'units': 'K'}
-- []
-+ [{'description': 'Grid temperature', 'units': 'K', 'variable_name': 'temp'},
-+  {'description': 'Wind velocity', 'units': 'm/s', 'variable_name': 'velocity'}]
-======================================================================
-FAIL: test_multiple_parameters (__main__.TestExtractParametersFromFile)
-Test with multiple parameters in file content.
-----------------------------------------------------------------------
-Traceback (most recent call last):
-  File "X:\code\python_project\RealisticEval\RealisticEval-Data\envs\python\temp\temp.py", line 52, in test_multiple_parameters
-    self.assertEqual(result, expected)
-AssertionError: Lists differ: [] != [{'variable_name': 'temp', 'description': [118 chars]tm'}]
-Second list contains 2 additional elements.
-First extra element 0:
-{'variable_name': 'temp', 'description': 'Ambient temperature', 'units': 'C'}
-- []
-+ [{'description': 'Ambient temperature', 'units': 'C', 'variable_name': 'temp'},
-+  {'description': 'Atmospheric pressure',
-+   'units': 'atm',
-+   'variable_name': 'pressure'}]
-======================================================================
-FAIL: test_standard_case (__main__.TestExtractParametersFromFile)
-Test with a well-formed Fortran file content.
-----------------------------------------------------------------------
-Traceback (most recent call last):
-  File "X:\code\python_project\RealisticEval\RealisticEval-Data\envs\python\temp\temp.py", line 37, in test_standard_case
-    self.assertEqual(result, expected)
-AssertionError: Lists differ: [] != [{'variable_name': 'temp', 'description': 'Temperature profile', 'units': 'K'}]
-Second list contains 1 additional elements.
-First extra element 0:
-{'variable_name': 'temp', 'description': 'Temperature profile', 'units': 'K'}
-- []
-+ [{'description': 'Temperature profile', 'units': 'K', 'variable_name': 'temp'}]
-----------------------------------------------------------------------
-Ran 5 tests in 0.012s
-FAILED (failures=3)
-</t>
-  </si>
-  <si>
     <t>import numpy as np
 def im2col(image, filter_height, filter_width, stride=1, padding=0):
     """
@@ -6859,109 +6633,6 @@
 </t>
   </si>
   <si>
-    <t>import socket
-def get_local_ip():
-    """
-    Get the local IP address of the current machine by creating a temporary socket.
-    It tries to connect to a remote address, but no actual connection is made.
-    Returns:
-    - str: The local IP address or an error message if unable to determine.
-    """</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import unittest
-from unittest.mock import patch, Mock
-import socket
-class TestGetLocalIP(unittest.TestCase):
-    @patch('socket.socket')
-    def test_normal_case(self, mock_socket):
-        # Simulate a normal case where the socket successfully retrieves an IP address
-        mock_socket_instance = mock_socket.return_value.__enter__.return_value
-        mock_socket_instance.getsockname.return_value = ('192.168.1.1', 0)
-        result = get_local_ip()
-        self.assertEqual(result, '192.168.1.1')
-    @patch('socket.socket')
-    def test_socket_error(self, mock_socket):
-        # Simulate a socket error
-        mock_socket.side_effect = socket.error("Socket error")
-        result = get_local_ip()
-        self.assertEqual(result, "Unable to determine local IP")
-    @patch('socket.socket')
-    def test_general_exception(self, mock_socket):
-        # Simulate a general exception
-        mock_socket.side_effect = Exception("General error")
-        result = get_local_ip()
-        self.assertEqual(result, "Unable to determine local IP")
-    @patch('socket.socket')
-    def test_no_ip_address(self, mock_socket):
-        # Simulate a case where no IP address is returned
-        mock_socket_instance = mock_socket.return_value.__enter__.return_value
-        mock_socket_instance.getsockname.return_value = ('', 0)
-        result = get_local_ip()
-        self.assertEqual(result, '')
-    @patch('socket.socket')
-    def test_invalid_address(self, mock_socket):
-        # Test with an invalid address, simulating an exception in connect()
-        mock_socket_instance = mock_socket.return_value.__enter__.return_value
-        mock_socket_instance.connect.side_effect = socket.error("Invalid address")
-        result = get_local_ip()
-        self.assertEqual(result, "Unable to determine local IP")
-</t>
-  </si>
-  <si>
-    <t>please write a python function the function signature as below import socket
-def get_local_ip():
-    """
-    Get the local IP address of the current machine by creating a temporary socket.
-    It tries to connect to a remote address, but no actual connection is made.
-    Returns:
-    - str: The local IP address or an error message if unable to determine.
-    """</t>
-  </si>
-  <si>
-    <t>[{'index': 1, 'model': 'gpt-3.5-turbo', 'code': 'import socket\n\ndef get_local_ip():\n    """\n    Get the local IP address of the current machine by creating a temporary socket.\n    It tries to connect to a remote address, but no actual connection is made.\n\n    Returns:\n    - str: The local IP address or an error message if unable to determine.\n    """\n    try:\n        with socket.socket(socket.AF_INET, socket.SOCK_DGRAM) as s:\n            s.connect((\'8.8.8.8\', 80))  # Google Public DNS\n            return s.getsockname()[0]\n    except Exception as e:\n        return f"Error determining local IP: {e}"'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FF..F
-======================================================================
-FAIL: test_general_exception (__main__.TestGetLocalIP)
-----------------------------------------------------------------------
-Traceback (most recent call last):
-  File "D:\sdk\python\py38\lib\unittest\mock.py", line 1342, in patched
-    return func(*newargs, **newkeywargs)
-  File "X:\code\python_project\RealisticEval\RealisticEval-Data\envs\python\temp\temp.py", line 46, in test_general_exception
-    self.assertEqual(result, "Unable to determine local IP")
-AssertionError: 'Error determining local IP: General error' != 'Unable to determine local IP'
-- Error determining local IP: General error
-+ Unable to determine local IP
-======================================================================
-FAIL: test_invalid_address (__main__.TestGetLocalIP)
-----------------------------------------------------------------------
-Traceback (most recent call last):
-  File "D:\sdk\python\py38\lib\unittest\mock.py", line 1342, in patched
-    return func(*newargs, **newkeywargs)
-  File "X:\code\python_project\RealisticEval\RealisticEval-Data\envs\python\temp\temp.py", line 64, in test_invalid_address
-    self.assertEqual(result, "Unable to determine local IP")
-AssertionError: 'Error determining local IP: Invalid address' != 'Unable to determine local IP'
-- Error determining local IP: Invalid address
-+ Unable to determine local IP
-======================================================================
-FAIL: test_socket_error (__main__.TestGetLocalIP)
-----------------------------------------------------------------------
-Traceback (most recent call last):
-  File "D:\sdk\python\py38\lib\unittest\mock.py", line 1342, in patched
-    return func(*newargs, **newkeywargs)
-  File "X:\code\python_project\RealisticEval\RealisticEval-Data\envs\python\temp\temp.py", line 38, in test_socket_error
-    self.assertEqual(result, "Unable to determine local IP")
-AssertionError: 'Error determining local IP: Socket error' != 'Unable to determine local IP'
-- Error determining local IP: Socket error
-+ Unable to determine local IP
-----------------------------------------------------------------------
-Ran 5 tests in 0.004s
-FAILED (failures=3)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">from typing import List
 def check_dividend_variances(records: List) -&gt; List:
     """
@@ -7970,6 +7641,9 @@
 Ran 5 tests in 0.001s
 FAILED (failures=2)
 </t>
+  </si>
+  <si>
+    <t>测试用例边界值问题</t>
   </si>
   <si>
     <t xml:space="preserve">def calculate_bearing(lat1: float, lon1: float, lat2: float, lon2: float) -&gt; float:
@@ -10270,7 +9944,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10280,6 +9954,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10287,6 +9969,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10445,7 +10143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10775,151 +10473,175 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11273,3777 +10995,3777 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A100" sqref="$A100:$XFD100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="12" max="12" width="22.875" customWidth="1"/>
+    <col min="12" max="12" width="22.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:12">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" ht="43.2" spans="1:12">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="409.5" spans="1:12">
-      <c r="A2" s="4">
+    <row r="2" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="9">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="9"/>
     </row>
-    <row r="3" ht="409.5" spans="1:12">
-      <c r="A3" s="4">
+    <row r="3" s="2" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="12">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="1:12">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="9">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>23</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
         <v>26</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="C20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
         <v>27</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="C21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
         <v>28</v>
       </c>
-      <c r="I4" s="3">
+      <c r="C22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="9">
         <v>1</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="J22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L22" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="5" ht="409.5" spans="1:12">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="23" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <v>31</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="E23" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="9">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="J23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" ht="409.5" spans="1:12">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="409.5" spans="1:12">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" ht="409.5" spans="1:12">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" ht="409.5" spans="1:12">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" ht="409.5" spans="1:12">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" ht="409.5" spans="1:12">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" ht="409.5" spans="1:12">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" ht="409.5" spans="1:12">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" ht="409.5" spans="1:12">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" ht="409.5" spans="1:12">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" ht="409.5" spans="1:12">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" ht="409.5" spans="1:12">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" ht="409.5" spans="1:12">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" ht="409.5" spans="1:12">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>24</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" ht="409.5" spans="1:12">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>25</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" ht="409.5" spans="1:12">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>26</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" ht="409.5" spans="1:12">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" ht="409.5" spans="1:12">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>126</v>
+      <c r="L23" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="24" ht="409.5" spans="1:12">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>31</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>33</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="E25" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>35</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>36</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>37</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="9">
         <v>1</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="J28" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>132</v>
+      <c r="L28" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="25" ht="409.5" spans="1:12">
-      <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3">
-        <v>32</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="3" t="s">
+    <row r="29" s="3" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15">
+        <v>38</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="E29" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" s="15">
         <v>1</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="J29" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" ht="409.5" spans="1:12">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <v>33</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" ht="409.5" spans="1:12">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3">
-        <v>35</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" ht="409.5" spans="1:12">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3">
-        <v>36</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" ht="409.5" spans="1:12">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3">
-        <v>37</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>156</v>
+      <c r="L29" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A30" s="5">
-        <v>28</v>
-      </c>
-      <c r="B30" s="6">
-        <v>38</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9">
+        <v>40</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="G30" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I30" s="6">
+      <c r="H30" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" s="9">
         <v>1</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="K30" s="6" t="s">
+      <c r="J30" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>126</v>
+      <c r="L30" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="31" ht="409.5" spans="1:12">
-      <c r="A31" s="4">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3">
-        <v>40</v>
-      </c>
-      <c r="C31" s="3" t="s">
+    <row r="31" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9">
+        <v>41</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9">
+        <v>42</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="E32" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" s="4" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="17">
+        <v>43</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="17">
         <v>1</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K31" s="3" t="s">
+      <c r="J33" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K33" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>167</v>
+      <c r="L33" s="18" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="32" ht="409.5" spans="1:12">
-      <c r="A32" s="4">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3">
-        <v>41</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="3" t="s">
+    <row r="34" s="3" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A34" s="14">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15">
+        <v>44</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K32" s="3" t="s">
+      <c r="E34" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34" s="15">
+        <v>1</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" ht="409.5" spans="1:12">
-      <c r="A33" s="4">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3">
-        <v>42</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A34" s="5">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6">
-        <v>43</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="I34" s="6">
-        <v>1</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>126</v>
+      <c r="L34" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A35" s="5">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6">
-        <v>44</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9">
+        <v>45</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="F35" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="G35" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="I35" s="6">
+      <c r="H35" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I35" s="9">
         <v>1</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="K35" s="6" t="s">
+      <c r="J35" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>126</v>
+      <c r="L35" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="36" ht="409.5" spans="1:12">
-      <c r="A36" s="4">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3">
-        <v>45</v>
-      </c>
-      <c r="C36" s="3" t="s">
+    <row r="36" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9">
+        <v>46</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9">
+        <v>47</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="E37" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37" s="9">
         <v>1</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="J37" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>192</v>
+      <c r="L37" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="37" ht="409.5" spans="1:12">
-      <c r="A37" s="4">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3">
-        <v>46</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="3" t="s">
+    <row r="38" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9">
+        <v>51</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="E38" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9">
+        <v>52</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I39" s="9">
         <v>0</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L39" s="9"/>
     </row>
-    <row r="38" ht="409.5" spans="1:12">
-      <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3">
-        <v>47</v>
-      </c>
-      <c r="C38" s="3" t="s">
+    <row r="40" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9">
+        <v>53</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="E40" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9">
+        <v>54</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="I41" s="9">
         <v>1</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K38" s="3" t="s">
+      <c r="J41" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="K41" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>202</v>
+      <c r="L41" s="10" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="39" ht="409.5" spans="1:12">
-      <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3">
-        <v>51</v>
-      </c>
-      <c r="C39" s="3" t="s">
+    <row r="42" s="4" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A42" s="16">
+        <v>41</v>
+      </c>
+      <c r="B42" s="17">
+        <v>55</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D42" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="E42" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="I42" s="17">
         <v>1</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="K39" s="3" t="s">
+      <c r="J42" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="K42" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" ht="409.5" spans="1:12">
-      <c r="A40" s="4">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3">
-        <v>52</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" ht="409.5" spans="1:12">
-      <c r="A41" s="4">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3">
-        <v>53</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" ht="409.5" spans="1:12">
-      <c r="A42" s="4">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3">
-        <v>54</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>222</v>
+      <c r="L42" s="18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A43" s="5">
-        <v>41</v>
-      </c>
-      <c r="B43" s="6">
-        <v>55</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9">
+        <v>56</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G43" s="6" t="s">
+      <c r="E43" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="F43" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="I43" s="6">
+      <c r="G43" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9">
+        <v>57</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" s="4" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A45" s="16">
+        <v>44</v>
+      </c>
+      <c r="B45" s="17">
+        <v>58</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="I45" s="17">
         <v>1</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="K43" s="6" t="s">
+      <c r="J45" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="K45" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" ht="409.5" spans="1:12">
-      <c r="A44" s="4">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3">
-        <v>56</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" ht="409.5" spans="1:12">
-      <c r="A45" s="4">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3">
-        <v>57</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" s="3"/>
+      <c r="L45" s="18" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A46" s="5">
-        <v>44</v>
-      </c>
-      <c r="B46" s="6">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9">
+        <v>59</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9">
+        <v>60</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9">
+        <v>62</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9">
+        <v>63</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="I49" s="9">
+        <v>1</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A50" s="16">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17">
+        <v>64</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="I50" s="17">
+        <v>1</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A51" s="14">
+        <v>50</v>
+      </c>
+      <c r="B51" s="15">
+        <v>65</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="I51" s="15">
+        <v>1</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="408" customHeight="1" spans="1:12">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9">
+        <v>66</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I52" s="9">
+        <v>1</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9">
+        <v>67</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9">
+        <v>68</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9">
+        <v>70</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I55" s="9">
+        <v>1</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9">
+        <v>71</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9">
+        <v>72</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="9"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9">
+        <v>73</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="I58" s="9">
+        <v>1</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" s="5" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A59" s="16">
         <v>58</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="B59" s="18">
+        <v>74</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D59" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="I46" s="6">
+      <c r="E59" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="I59" s="18">
         <v>1</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="K46" s="6" t="s">
+      <c r="J59" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="K59" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="6" t="s">
-        <v>243</v>
+      <c r="L59" s="18" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="47" ht="409.5" spans="1:12">
-      <c r="A47" s="4">
-        <v>45</v>
-      </c>
-      <c r="B47" s="3">
+    <row r="60" s="4" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A60" s="16">
         <v>59</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="B60" s="17">
+        <v>75</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D60" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="3" t="s">
+      <c r="E60" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="I60" s="17">
+        <v>1</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="K60" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="3"/>
+      <c r="L60" s="18" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="48" ht="409.5" spans="1:12">
-      <c r="A48" s="4">
-        <v>46</v>
-      </c>
-      <c r="B48" s="3">
+    <row r="61" s="3" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A61" s="14">
         <v>60</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="B61" s="15">
+        <v>76</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D61" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="K48" s="3" t="s">
+      <c r="E61" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="I61" s="15">
+        <v>1</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="K61" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" ht="409.5" spans="1:12">
-      <c r="A49" s="4">
-        <v>47</v>
-      </c>
-      <c r="B49" s="3">
-        <v>62</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" ht="409.5" spans="1:12">
-      <c r="A50" s="4">
-        <v>48</v>
-      </c>
-      <c r="B50" s="3">
-        <v>63</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A51" s="5">
-        <v>49</v>
-      </c>
-      <c r="B51" s="6">
-        <v>64</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="I51" s="6">
-        <v>1</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A52" s="5">
-        <v>50</v>
-      </c>
-      <c r="B52" s="6">
-        <v>65</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I52" s="6">
-        <v>1</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" ht="409.5" spans="1:12">
-      <c r="A53" s="4">
-        <v>51</v>
-      </c>
-      <c r="B53" s="3">
-        <v>66</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I53" s="3">
-        <v>1</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="54" ht="409.5" spans="1:12">
-      <c r="A54" s="4">
-        <v>52</v>
-      </c>
-      <c r="B54" s="3">
-        <v>67</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" ht="409.5" spans="1:12">
-      <c r="A55" s="4">
-        <v>53</v>
-      </c>
-      <c r="B55" s="3">
-        <v>68</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" ht="409.5" spans="1:12">
-      <c r="A56" s="4">
-        <v>54</v>
-      </c>
-      <c r="B56" s="3">
-        <v>70</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I56" s="3">
-        <v>1</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" ht="409.5" spans="1:12">
-      <c r="A57" s="4">
-        <v>55</v>
-      </c>
-      <c r="B57" s="3">
-        <v>71</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" ht="409.5" spans="1:12">
-      <c r="A58" s="4">
-        <v>56</v>
-      </c>
-      <c r="B58" s="3">
-        <v>72</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" ht="409.5" spans="1:12">
-      <c r="A59" s="4">
-        <v>57</v>
-      </c>
-      <c r="B59" s="3">
-        <v>73</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" s="2" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A60" s="5">
-        <v>58</v>
-      </c>
-      <c r="B60" s="7">
-        <v>74</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F60" s="8" t="s">
+      <c r="L61" s="15" t="s">
         <v>311</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="I60" s="7">
-        <v>1</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A61" s="5">
-        <v>59</v>
-      </c>
-      <c r="B61" s="6">
-        <v>75</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="I61" s="6">
-        <v>1</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A62" s="5">
-        <v>60</v>
-      </c>
-      <c r="B62" s="6">
-        <v>76</v>
-      </c>
-      <c r="C62" s="6" t="s">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9">
+        <v>77</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F62" s="6" t="s">
+      <c r="E62" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="F62" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="G62" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="I62" s="6">
+      <c r="H62" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="I62" s="9">
         <v>1</v>
       </c>
-      <c r="J62" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="K62" s="6" t="s">
+      <c r="J62" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="K62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L62" s="6" t="s">
-        <v>315</v>
+      <c r="L62" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="63" ht="409.5" spans="1:12">
-      <c r="A63" s="4">
-        <v>61</v>
-      </c>
-      <c r="B63" s="3">
-        <v>77</v>
-      </c>
-      <c r="C63" s="3" t="s">
+    <row r="63" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9">
+        <v>78</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="E63" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="F63" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="G63" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I63" s="3">
+      <c r="H63" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" s="4" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A64" s="16">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17">
+        <v>79</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="I64" s="17">
         <v>1</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="K63" s="3" t="s">
+      <c r="J64" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="K64" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L63" s="3" t="s">
-        <v>208</v>
+      <c r="L64" s="18" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="64" ht="409.5" spans="1:12">
-      <c r="A64" s="4">
-        <v>62</v>
-      </c>
-      <c r="B64" s="3">
-        <v>78</v>
-      </c>
-      <c r="C64" s="3" t="s">
+    <row r="65" s="4" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A65" s="16">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17">
+        <v>80</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D65" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="E65" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="I65" s="17">
+        <v>1</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="K65" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A65" s="5">
-        <v>63</v>
-      </c>
-      <c r="B65" s="6">
-        <v>79</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="I65" s="6">
-        <v>1</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>315</v>
+      <c r="L65" s="18" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A66" s="5">
-        <v>64</v>
-      </c>
-      <c r="B66" s="6">
-        <v>80</v>
-      </c>
-      <c r="C66" s="6" t="s">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9">
+        <v>81</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F66" s="6" t="s">
+      <c r="E66" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="F66" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="G66" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="I66" s="6">
+      <c r="H66" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="I66" s="9">
         <v>1</v>
       </c>
-      <c r="J66" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="K66" s="6" t="s">
+      <c r="J66" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="K66" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L66" s="6" t="s">
-        <v>315</v>
+      <c r="L66" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="67" ht="409.5" spans="1:12">
-      <c r="A67" s="4">
-        <v>65</v>
-      </c>
-      <c r="B67" s="3">
-        <v>81</v>
-      </c>
-      <c r="C67" s="3" t="s">
+    <row r="67" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9">
+        <v>82</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F67" s="3" t="s">
+      <c r="E67" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="F67" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="G67" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="I67" s="3">
+      <c r="H67" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="I67" s="9">
         <v>1</v>
       </c>
-      <c r="J67" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="K67" s="3" t="s">
+      <c r="J67" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="K67" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L67" s="3" t="s">
-        <v>309</v>
+      <c r="L67" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="68" ht="409.5" spans="1:12">
-      <c r="A68" s="4">
-        <v>66</v>
-      </c>
-      <c r="B68" s="3">
-        <v>82</v>
-      </c>
-      <c r="C68" s="3" t="s">
+    <row r="68" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9">
+        <v>83</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F68" s="3" t="s">
+      <c r="E68" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="F68" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="G68" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="I68" s="3">
+      <c r="H68" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="I68" s="9">
+        <v>0</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9">
+        <v>84</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="I69" s="9">
+        <v>0</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9">
+        <v>85</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="I70" s="9">
         <v>1</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="K68" s="3" t="s">
+      <c r="J70" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="K70" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L68" s="3" t="s">
-        <v>208</v>
+      <c r="L70" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="69" ht="409.5" spans="1:12">
-      <c r="A69" s="4">
-        <v>67</v>
-      </c>
-      <c r="B69" s="3">
-        <v>83</v>
-      </c>
-      <c r="C69" s="3" t="s">
+    <row r="71" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9">
+        <v>86</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D71" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="I69" s="3">
+      <c r="E71" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I71" s="9">
         <v>0</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J71" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K71" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L69" s="3"/>
+      <c r="L71" s="9"/>
     </row>
-    <row r="70" ht="409.5" spans="1:12">
-      <c r="A70" s="4">
-        <v>68</v>
-      </c>
-      <c r="B70" s="3">
-        <v>84</v>
-      </c>
-      <c r="C70" s="3" t="s">
+    <row r="72" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A72" s="8">
+        <v>72</v>
+      </c>
+      <c r="B72" s="9">
+        <v>213</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D72" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="I70" s="3">
+      <c r="E72" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="I72" s="9">
         <v>0</v>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" s="3" t="s">
+      <c r="J72" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="K72" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" ht="409.5" spans="1:12">
-      <c r="A71" s="4">
-        <v>69</v>
-      </c>
-      <c r="B71" s="3">
-        <v>85</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="I71" s="3">
-        <v>1</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" ht="409.5" spans="1:12">
-      <c r="A72" s="4">
-        <v>70</v>
-      </c>
-      <c r="B72" s="3">
-        <v>86</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L72" s="3"/>
+      <c r="L72" s="9"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A73" s="5">
-        <v>71</v>
-      </c>
-      <c r="B73" s="6">
-        <v>211</v>
-      </c>
-      <c r="C73" s="6" t="s">
+      <c r="A73" s="8">
+        <v>73</v>
+      </c>
+      <c r="B73" s="9">
+        <v>214</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="F73" s="6" t="s">
+      <c r="E73" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="F73" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="G73" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="I73" s="6">
+      <c r="H73" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="I73" s="9">
         <v>1</v>
       </c>
-      <c r="J73" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="K73" s="6" t="s">
+      <c r="J73" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="K73" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L73" s="6" t="s">
-        <v>315</v>
+      <c r="L73" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="74" ht="409.5" spans="1:12">
-      <c r="A74" s="4">
-        <v>72</v>
-      </c>
-      <c r="B74" s="3">
-        <v>213</v>
-      </c>
-      <c r="C74" s="3" t="s">
+    <row r="74" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A74" s="8">
+        <v>74</v>
+      </c>
+      <c r="B74" s="9">
+        <v>215</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F74" s="3" t="s">
+      <c r="E74" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="F74" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="G74" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="I74" s="3">
+      <c r="H74" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="I74" s="9">
+        <v>1</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A75" s="8">
+        <v>75</v>
+      </c>
+      <c r="B75" s="9">
+        <v>216</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="I75" s="9">
+        <v>1</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A76" s="8">
+        <v>77</v>
+      </c>
+      <c r="B76" s="9">
+        <v>219</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I76" s="9">
         <v>0</v>
       </c>
-      <c r="J74" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="K74" s="3" t="s">
+      <c r="J76" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L74" s="3"/>
+      <c r="L76" s="9"/>
     </row>
-    <row r="75" ht="409.5" spans="1:12">
-      <c r="A75" s="4">
-        <v>73</v>
-      </c>
-      <c r="B75" s="3">
-        <v>214</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="3" t="s">
+    <row r="77" s="4" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A77" s="16">
+        <v>78</v>
+      </c>
+      <c r="B77" s="17">
+        <v>220</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="I75" s="3">
+      <c r="E77" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="I77" s="17">
         <v>1</v>
       </c>
-      <c r="J75" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="K75" s="3" t="s">
+      <c r="J77" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="K77" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L75" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" ht="409.5" spans="1:12">
-      <c r="A76" s="4">
-        <v>74</v>
-      </c>
-      <c r="B76" s="3">
-        <v>215</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" ht="409.5" spans="1:12">
-      <c r="A77" s="4">
-        <v>75</v>
-      </c>
-      <c r="B77" s="3">
-        <v>216</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="I77" s="3">
-        <v>1</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>208</v>
+      <c r="L77" s="18" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A78" s="5">
-        <v>76</v>
-      </c>
-      <c r="B78" s="6">
-        <v>217</v>
-      </c>
-      <c r="C78" s="6" t="s">
+      <c r="A78" s="8">
+        <v>79</v>
+      </c>
+      <c r="B78" s="9">
+        <v>221</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78" s="9">
+        <v>0</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A79" s="8">
+        <v>80</v>
+      </c>
+      <c r="B79" s="9">
+        <v>224</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="I79" s="9">
         <v>1</v>
       </c>
-      <c r="J78" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="K78" s="6" t="s">
+      <c r="J79" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="K79" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L78" s="6" t="s">
-        <v>315</v>
+      <c r="L79" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="79" ht="409.5" spans="1:12">
-      <c r="A79" s="4">
-        <v>77</v>
-      </c>
-      <c r="B79" s="3">
-        <v>219</v>
-      </c>
-      <c r="C79" s="3" t="s">
+    <row r="80" s="3" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A80" s="14">
+        <v>81</v>
+      </c>
+      <c r="B80" s="15">
+        <v>227</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D80" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K79" s="3" t="s">
+      <c r="E80" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="I80" s="15">
+        <v>1</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="K80" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L79" s="3"/>
+      <c r="L80" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A80" s="5">
-        <v>78</v>
-      </c>
-      <c r="B80" s="6">
-        <v>220</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80" s="6" t="s">
+    <row r="81" s="3" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A81" s="14">
+        <v>82</v>
+      </c>
+      <c r="B81" s="15">
+        <v>229</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="I80" s="6">
+      <c r="E81" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I81" s="15">
         <v>1</v>
       </c>
-      <c r="J80" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="K80" s="6" t="s">
+      <c r="J81" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="K81" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L80" s="6" t="s">
-        <v>315</v>
+      <c r="L81" s="15" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="81" ht="409.5" spans="1:12">
-      <c r="A81" s="4">
-        <v>79</v>
-      </c>
-      <c r="B81" s="3">
-        <v>221</v>
-      </c>
-      <c r="C81" s="3" t="s">
+    <row r="82" s="3" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A82" s="14">
+        <v>83</v>
+      </c>
+      <c r="B82" s="15">
+        <v>230</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D82" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="K81" s="3" t="s">
+      <c r="E82" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="I82" s="15">
+        <v>1</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="K82" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L81" s="3"/>
+      <c r="L82" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="82" ht="409.5" spans="1:12">
-      <c r="A82" s="4">
-        <v>80</v>
-      </c>
-      <c r="B82" s="3">
-        <v>224</v>
-      </c>
-      <c r="C82" s="3" t="s">
+    <row r="83" s="4" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A83" s="16">
+        <v>84</v>
+      </c>
+      <c r="B83" s="17">
+        <v>231</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D83" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="I82" s="3">
+      <c r="E83" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="I83" s="17">
         <v>1</v>
       </c>
-      <c r="J82" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="K82" s="3" t="s">
+      <c r="J83" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="K83" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L82" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A83" s="5">
-        <v>81</v>
-      </c>
-      <c r="B83" s="6">
-        <v>227</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="I83" s="6">
-        <v>1</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>315</v>
+      <c r="L83" s="18" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A84" s="5">
-        <v>82</v>
-      </c>
-      <c r="B84" s="6">
-        <v>229</v>
-      </c>
-      <c r="C84" s="6" t="s">
+      <c r="A84" s="8">
+        <v>85</v>
+      </c>
+      <c r="B84" s="9">
+        <v>232</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="F84" s="6" t="s">
+      <c r="E84" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="F84" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="G84" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="I84" s="6">
+      <c r="H84" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="I84" s="9">
         <v>1</v>
       </c>
-      <c r="J84" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="K84" s="6" t="s">
+      <c r="J84" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="K84" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L84" s="6" t="s">
-        <v>315</v>
+      <c r="L84" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A85" s="5">
-        <v>83</v>
-      </c>
-      <c r="B85" s="6">
-        <v>230</v>
-      </c>
-      <c r="C85" s="6" t="s">
+    <row r="85" s="4" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A85" s="16">
+        <v>86</v>
+      </c>
+      <c r="B85" s="17">
+        <v>233</v>
+      </c>
+      <c r="C85" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="F85" s="6" t="s">
+      <c r="E85" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="F85" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="G85" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="I85" s="6">
+      <c r="H85" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="I85" s="17">
         <v>1</v>
       </c>
-      <c r="J85" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="K85" s="6" t="s">
+      <c r="J85" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K85" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L85" s="6" t="s">
-        <v>315</v>
+      <c r="L85" s="18" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A86" s="5">
-        <v>84</v>
-      </c>
-      <c r="B86" s="6">
-        <v>231</v>
-      </c>
-      <c r="C86" s="6" t="s">
+      <c r="A86" s="8">
+        <v>87</v>
+      </c>
+      <c r="B86" s="9">
+        <v>235</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="G86" s="6" t="s">
+      <c r="E86" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="F86" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="I86" s="6">
+      <c r="G86" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="I86" s="9">
+        <v>0</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" s="4" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A87" s="16">
+        <v>88</v>
+      </c>
+      <c r="B87" s="17">
+        <v>240</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="I87" s="17">
         <v>1</v>
       </c>
-      <c r="J86" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="K86" s="6" t="s">
+      <c r="J87" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="K87" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L86" s="6" t="s">
-        <v>315</v>
+      <c r="L87" s="18" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="87" ht="409.5" spans="1:12">
-      <c r="A87" s="4">
-        <v>85</v>
-      </c>
-      <c r="B87" s="3">
-        <v>232</v>
-      </c>
-      <c r="C87" s="3" t="s">
+    <row r="88" s="4" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A88" s="16">
+        <v>89</v>
+      </c>
+      <c r="B88" s="17">
+        <v>241</v>
+      </c>
+      <c r="C88" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D88" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="I87" s="3">
+      <c r="E88" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="I88" s="17">
         <v>1</v>
       </c>
-      <c r="J87" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K87" s="3" t="s">
+      <c r="J88" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="K88" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L87" s="3" t="s">
-        <v>208</v>
+      <c r="L88" s="18" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A88" s="5">
-        <v>86</v>
-      </c>
-      <c r="B88" s="6">
-        <v>233</v>
-      </c>
-      <c r="C88" s="6" t="s">
+    <row r="89" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A89" s="8">
+        <v>90</v>
+      </c>
+      <c r="B89" s="9">
+        <v>244</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D89" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="I88" s="6">
+      <c r="E89" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="I89" s="9">
         <v>1</v>
       </c>
-      <c r="J88" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="K88" s="6" t="s">
+      <c r="J89" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="K89" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L88" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="89" ht="409.5" spans="1:12">
-      <c r="A89" s="4">
-        <v>87</v>
-      </c>
-      <c r="B89" s="3">
-        <v>235</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L89" s="3"/>
+      <c r="L89" s="10" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="90" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A90" s="5">
-        <v>88</v>
-      </c>
-      <c r="B90" s="6">
-        <v>240</v>
-      </c>
-      <c r="C90" s="6" t="s">
+      <c r="A90" s="8">
+        <v>91</v>
+      </c>
+      <c r="B90" s="9">
+        <v>248</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="G90" s="6" t="s">
+      <c r="E90" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="F90" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="I90" s="6">
+      <c r="G90" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="I90" s="9">
         <v>1</v>
       </c>
-      <c r="J90" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="K90" s="6" t="s">
+      <c r="J90" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="K90" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L90" s="6" t="s">
-        <v>315</v>
-      </c>
+      <c r="L90" s="9"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A91" s="5">
-        <v>89</v>
-      </c>
-      <c r="B91" s="6">
-        <v>241</v>
-      </c>
-      <c r="C91" s="6" t="s">
+    <row r="91" s="3" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A91" s="14">
+        <v>92</v>
+      </c>
+      <c r="B91" s="15">
+        <v>249</v>
+      </c>
+      <c r="C91" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="G91" s="6" t="s">
+      <c r="E91" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="F91" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="I91" s="6">
+      <c r="G91" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="I91" s="15">
         <v>1</v>
       </c>
-      <c r="J91" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="K91" s="6" t="s">
+      <c r="J91" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="K91" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L91" s="6" t="s">
-        <v>315</v>
+      <c r="L91" s="15" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="92" ht="409.5" spans="1:12">
-      <c r="A92" s="4">
-        <v>90</v>
-      </c>
-      <c r="B92" s="3">
-        <v>244</v>
-      </c>
-      <c r="C92" s="3" t="s">
+    <row r="92" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A92" s="8">
+        <v>93</v>
+      </c>
+      <c r="B92" s="9">
+        <v>250</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="E92" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="F92" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="I92" s="3">
+      <c r="G92" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I92" s="9">
+        <v>0</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="9"/>
+    </row>
+    <row r="93" s="3" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A93" s="14">
+        <v>94</v>
+      </c>
+      <c r="B93" s="15">
+        <v>252</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="I93" s="15">
         <v>1</v>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="K92" s="3" t="s">
+      <c r="J93" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="K93" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L92" s="3" t="s">
-        <v>208</v>
+      <c r="L93" s="15" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="93" ht="409.5" spans="1:12">
-      <c r="A93" s="4">
-        <v>91</v>
-      </c>
-      <c r="B93" s="3">
-        <v>248</v>
-      </c>
-      <c r="C93" s="3" t="s">
+    <row r="94" s="3" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A94" s="14">
+        <v>95</v>
+      </c>
+      <c r="B94" s="15">
+        <v>253</v>
+      </c>
+      <c r="C94" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D94" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="I93" s="3">
+      <c r="E94" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="I94" s="15">
         <v>1</v>
       </c>
-      <c r="J93" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="K93" s="3" t="s">
+      <c r="J94" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="K94" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L93" s="3"/>
+      <c r="L94" s="15" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="94" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A94" s="5">
-        <v>92</v>
-      </c>
-      <c r="B94" s="6">
-        <v>249</v>
-      </c>
-      <c r="C94" s="6" t="s">
+    <row r="95" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A95" s="8">
+        <v>96</v>
+      </c>
+      <c r="B95" s="9">
+        <v>255</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D95" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="I94" s="6">
-        <v>1</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="K94" s="6" t="s">
+      <c r="E95" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I95" s="9">
+        <v>0</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="K95" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L94" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="95" ht="409.5" spans="1:12">
-      <c r="A95" s="4">
-        <v>93</v>
-      </c>
-      <c r="B95" s="3">
-        <v>250</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="I95" s="3">
-        <v>0</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L95" s="3"/>
+      <c r="L95" s="9"/>
     </row>
     <row r="96" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A96" s="5">
-        <v>94</v>
-      </c>
-      <c r="B96" s="6">
-        <v>252</v>
-      </c>
-      <c r="C96" s="6" t="s">
+      <c r="A96" s="8">
+        <v>97</v>
+      </c>
+      <c r="B96" s="9">
+        <v>256</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="G96" s="6" t="s">
+      <c r="E96" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="F96" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="I96" s="6">
-        <v>1</v>
-      </c>
-      <c r="J96" s="6" t="s">
+      <c r="G96" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="K96" s="6" t="s">
+      <c r="H96" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="I96" s="9">
+        <v>0</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L96" s="6" t="s">
-        <v>315</v>
-      </c>
+      <c r="L96" s="9"/>
     </row>
     <row r="97" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A97" s="5">
-        <v>95</v>
-      </c>
-      <c r="B97" s="6">
-        <v>253</v>
-      </c>
-      <c r="C97" s="6" t="s">
+      <c r="A97" s="8">
+        <v>98</v>
+      </c>
+      <c r="B97" s="9">
+        <v>258</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="F97" s="6" t="s">
+      <c r="E97" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="F97" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="G97" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="I97" s="6">
+      <c r="H97" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="I97" s="9">
         <v>1</v>
       </c>
-      <c r="J97" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="K97" s="6" t="s">
+      <c r="J97" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="K97" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L97" s="6" t="s">
-        <v>315</v>
+      <c r="L97" s="10" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="98" ht="409.5" spans="1:12">
-      <c r="A98" s="4">
-        <v>96</v>
-      </c>
-      <c r="B98" s="3">
-        <v>255</v>
-      </c>
-      <c r="C98" s="3" t="s">
+    <row r="98" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A98" s="8">
+        <v>99</v>
+      </c>
+      <c r="B98" s="9">
+        <v>259</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="E98" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="F98" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="G98" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="I98" s="3">
+      <c r="H98" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="I98" s="9">
+        <v>1</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" s="3" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A99" s="14">
+        <v>100</v>
+      </c>
+      <c r="B99" s="15">
+        <v>260</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="I99" s="15">
+        <v>1</v>
+      </c>
+      <c r="J99" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="K99" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A100" s="8">
+        <v>101</v>
+      </c>
+      <c r="B100" s="9">
+        <v>262</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="I100" s="9">
+        <v>1</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A101" s="8">
+        <v>102</v>
+      </c>
+      <c r="B101" s="9">
+        <v>263</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="I101" s="9">
         <v>0</v>
       </c>
-      <c r="J98" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="K98" s="3" t="s">
+      <c r="J101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L98" s="3"/>
+      <c r="L101" s="9"/>
     </row>
-    <row r="99" ht="409.5" spans="1:12">
-      <c r="A99" s="4">
-        <v>97</v>
-      </c>
-      <c r="B99" s="3">
-        <v>256</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="I99" s="3">
-        <v>0</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" ht="409.5" spans="1:12">
-      <c r="A100" s="4">
-        <v>98</v>
-      </c>
-      <c r="B100" s="3">
-        <v>258</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="101" ht="409.5" spans="1:12">
-      <c r="A101" s="4">
-        <v>99</v>
-      </c>
-      <c r="B101" s="3">
-        <v>259</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="I101" s="3">
-        <v>1</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="409.5" spans="1:12">
-      <c r="A102" s="5">
-        <v>100</v>
+    <row r="102" ht="409.5" spans="1:12">
+      <c r="A102" s="7">
+        <v>103</v>
       </c>
       <c r="B102" s="6">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>11</v>
@@ -15052,471 +14774,359 @@
         <v>12</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I102" s="6">
         <v>1</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K102" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="103" ht="409.5" spans="1:12">
-      <c r="A103" s="4">
-        <v>101</v>
-      </c>
-      <c r="B103" s="3">
-        <v>262</v>
-      </c>
-      <c r="C103" s="3" t="s">
+    <row r="103" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A103" s="8">
+        <v>104</v>
+      </c>
+      <c r="B103" s="9">
+        <v>267</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="F103" s="3" t="s">
+      <c r="E103" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="F103" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="G103" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="I103" s="3">
+      <c r="H103" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="I103" s="9">
+        <v>0</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L103" s="9"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A104" s="8">
+        <v>105</v>
+      </c>
+      <c r="B104" s="9">
+        <v>268</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="I104" s="9">
+        <v>0</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104" s="9"/>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A105" s="8">
+        <v>106</v>
+      </c>
+      <c r="B105" s="9">
+        <v>269</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="I105" s="9">
         <v>1</v>
       </c>
-      <c r="J103" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="K103" s="3" t="s">
+      <c r="J105" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="K105" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L103" s="3" t="s">
-        <v>208</v>
+      <c r="L105" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="104" ht="409.5" spans="1:12">
-      <c r="A104" s="4">
-        <v>102</v>
-      </c>
-      <c r="B104" s="3">
-        <v>263</v>
-      </c>
-      <c r="C104" s="3" t="s">
+    <row r="106" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A106" s="8">
+        <v>107</v>
+      </c>
+      <c r="B106" s="9">
+        <v>281</v>
+      </c>
+      <c r="C106" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D106" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="I104" s="3">
+      <c r="E106" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="I106" s="9">
+        <v>1</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A107" s="8">
+        <v>108</v>
+      </c>
+      <c r="B107" s="9">
+        <v>282</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="I107" s="9">
         <v>0</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="J107" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K104" s="3" t="s">
+      <c r="K107" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L104" s="3"/>
+      <c r="L107" s="9"/>
     </row>
-    <row r="105" ht="409.5" spans="1:12">
-      <c r="A105" s="4">
-        <v>103</v>
-      </c>
-      <c r="B105" s="3">
-        <v>266</v>
-      </c>
-      <c r="C105" s="3" t="s">
+    <row r="108" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A108" s="8">
+        <v>109</v>
+      </c>
+      <c r="B108" s="9">
+        <v>286</v>
+      </c>
+      <c r="C108" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="I105" s="3">
-        <v>1</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="K105" s="3" t="s">
+      <c r="E108" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="I108" s="9">
+        <v>0</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L105" s="3" t="s">
-        <v>315</v>
-      </c>
+      <c r="L108" s="9"/>
     </row>
-    <row r="106" ht="409.5" spans="1:12">
-      <c r="A106" s="4">
-        <v>104</v>
-      </c>
-      <c r="B106" s="3">
-        <v>267</v>
-      </c>
-      <c r="C106" s="3" t="s">
+    <row r="109" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A109" s="8">
+        <v>110</v>
+      </c>
+      <c r="B109" s="9">
+        <v>288</v>
+      </c>
+      <c r="C109" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D109" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="I106" s="3">
+      <c r="E109" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="I109" s="9">
         <v>0</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="J109" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K106" s="3" t="s">
+      <c r="K109" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L106" s="3"/>
-    </row>
-    <row r="107" ht="409.5" spans="1:12">
-      <c r="A107" s="4">
-        <v>105</v>
-      </c>
-      <c r="B107" s="3">
-        <v>268</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="I107" s="3">
-        <v>0</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L107" s="3"/>
-    </row>
-    <row r="108" ht="409.5" spans="1:12">
-      <c r="A108" s="4">
-        <v>106</v>
-      </c>
-      <c r="B108" s="3">
-        <v>269</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="I108" s="3">
-        <v>1</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L108" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" ht="409.5" spans="1:12">
-      <c r="A109" s="4">
-        <v>107</v>
-      </c>
-      <c r="B109" s="3">
-        <v>281</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="I109" s="3">
-        <v>1</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>208</v>
-      </c>
+      <c r="L109" s="9"/>
     </row>
     <row r="110" ht="409.5" spans="1:12">
-      <c r="A110" s="4">
-        <v>108</v>
-      </c>
-      <c r="B110" s="3">
-        <v>282</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="A110" s="7">
+        <v>111</v>
+      </c>
+      <c r="B110" s="6">
+        <v>290</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="F110" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="G110" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="H110" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="I110" s="6">
+        <v>1</v>
+      </c>
+      <c r="J110" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="I110" s="3">
+      <c r="K110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A111" s="8">
+        <v>112</v>
+      </c>
+      <c r="B111" s="9">
+        <v>291</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I111" s="9">
         <v>0</v>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K110" s="3" t="s">
+      <c r="J111" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="K111" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L110" s="3"/>
-    </row>
-    <row r="111" ht="409.5" spans="1:12">
-      <c r="A111" s="4">
-        <v>109</v>
-      </c>
-      <c r="B111" s="3">
-        <v>286</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I111" s="3">
-        <v>0</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L111" s="3"/>
-    </row>
-    <row r="112" ht="409.5" spans="1:12">
-      <c r="A112" s="4">
-        <v>110</v>
-      </c>
-      <c r="B112" s="3">
-        <v>288</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="I112" s="3">
-        <v>0</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L112" s="3"/>
-    </row>
-    <row r="113" ht="409.5" spans="1:12">
-      <c r="A113" s="4">
-        <v>111</v>
-      </c>
-      <c r="B113" s="3">
-        <v>290</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="I113" s="3">
-        <v>1</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="114" ht="409.5" spans="1:12">
-      <c r="A114" s="4">
-        <v>112</v>
-      </c>
-      <c r="B114" s="3">
-        <v>291</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="I114" s="3">
-        <v>0</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L114" s="3"/>
+      <c r="L111" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_python.xlsx
+++ b/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_python.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="936">
   <si>
     <t>task_id</t>
   </si>
@@ -10827,7 +10827,7 @@
 - ['file1.json', 'file2.json', 'test.json']
 + ['test.json']
 ----------------------------------------------------------------------
-Ran 6 tests in 0.016s
+Ran 6 tests in 0.017s
 FAILED (failures=4, errors=1)
 </t>
   </si>
@@ -10881,14 +10881,14 @@
   <si>
     <t xml:space="preserve">....
 ----------------------------------------------------------------------
-Ran 4 tests in 0.011s
+Ran 4 tests in 0.008s
 OK
 </t>
   </si>
   <si>
     <t xml:space="preserve">.....
 ----------------------------------------------------------------------
-Ran 5 tests in 0.034s
+Ran 5 tests in 0.014s
 OK
 </t>
   </si>
@@ -10937,7 +10937,7 @@
     self.assertEqual(len(result), 13, "Should have 13 colors with one intermediate")
 AssertionError: 18 != 13 : Should have 13 colors with one intermediate
 ----------------------------------------------------------------------
-Ran 3 tests in 0.000s
+Ran 3 tests in 0.001s
 FAILED (failures=3)
 </t>
   </si>
@@ -11074,14 +11074,14 @@
 Expected: save('output.ico', format='ICO', sizes=[(64, 64)])
 Actual: not called.
 ----------------------------------------------------------------------
-Ran 5 tests in 0.006s
+Ran 5 tests in 0.005s
 FAILED (failures=4)
 </t>
   </si>
   <si>
     <t xml:space="preserve">....
 ----------------------------------------------------------------------
-Ran 4 tests in 0.037s
+Ran 4 tests in 0.022s
 OK
 </t>
   </si>
@@ -11095,7 +11095,7 @@
   <si>
     <t xml:space="preserve">....
 ----------------------------------------------------------------------
-Ran 4 tests in 0.022s
+Ran 4 tests in 0.011s
 OK
 </t>
   </si>
@@ -11116,14 +11116,7 @@
   <si>
     <t xml:space="preserve">.....
 ----------------------------------------------------------------------
-Ran 5 tests in 0.026s
-OK
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.....
-----------------------------------------------------------------------
-Ran 5 tests in 0.005s
+Ran 5 tests in 0.006s
 OK
 </t>
   </si>
@@ -11226,13 +11219,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">.....
-----------------------------------------------------------------------
-Ran 5 tests in 0.006s
-OK
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">....
 ----------------------------------------------------------------------
 Ran 4 tests in 0.002s
@@ -11256,7 +11242,7 @@
   <si>
     <t xml:space="preserve">....
 ----------------------------------------------------------------------
-Ran 4 tests in 0.289s
+Ran 4 tests in 0.274s
 OK
 </t>
   </si>
@@ -11320,13 +11306,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">....
-----------------------------------------------------------------------
-Ran 4 tests in 0.008s
-OK
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">...
 ----------------------------------------------------------------------
 Ran 3 tests in 0.001s
@@ -11334,13 +11313,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">....
-----------------------------------------------------------------------
-Ran 4 tests in 0.007s
-OK
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">...
 ----------------------------------------------------------------------
 Ran 3 tests in 0.003s
@@ -11350,14 +11322,14 @@
   <si>
     <t xml:space="preserve">...
 ----------------------------------------------------------------------
-Ran 3 tests in 0.030s
+Ran 3 tests in 0.009s
 OK
 </t>
   </si>
   <si>
     <t xml:space="preserve">....
 ----------------------------------------------------------------------
-Ran 4 tests in 0.071s
+Ran 4 tests in 0.074s
 OK
 </t>
   </si>
@@ -11365,6 +11337,13 @@
     <t xml:space="preserve">......
 ----------------------------------------------------------------------
 Ran 6 tests in 0.000s
+OK
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">....
+----------------------------------------------------------------------
+Ran 4 tests in 0.009s
 OK
 </t>
   </si>
@@ -11432,7 +11411,7 @@
 ?        
 +
 ----------------------------------------------------------------------
-Ran 3 tests in 0.006s
+Ran 3 tests in 0.005s
 FAILED (failures=3)
 </t>
   </si>
@@ -11509,7 +11488,7 @@
   <si>
     <t xml:space="preserve">.....
 ----------------------------------------------------------------------
-Ran 5 tests in 0.007s
+Ran 5 tests in 0.008s
 OK
 </t>
   </si>
@@ -11557,7 +11536,7 @@
     with open(output_file_path, 'r') as f:
 FileNotFoundError: [Errno 2] No such file or directory: 'output.csv'
 ----------------------------------------------------------------------
-Ran 4 tests in 0.032s
+Ran 4 tests in 0.015s
 FAILED (errors=1)
 </t>
   </si>
@@ -11667,14 +11646,14 @@
   <si>
     <t xml:space="preserve">.....
 ----------------------------------------------------------------------
-Ran 5 tests in 0.023s
+Ran 5 tests in 0.009s
 OK
 </t>
   </si>
   <si>
     <t xml:space="preserve">....
 ----------------------------------------------------------------------
-Ran 4 tests in 0.185s
+Ran 4 tests in 0.180s
 OK
 </t>
   </si>
@@ -11690,7 +11669,7 @@
     if not solve_queens(board, 0):
 NameError: name 'solve_queens' is not defined
 ----------------------------------------------------------------------
-Ran 3 tests in 0.001s
+Ran 3 tests in 0.002s
 FAILED (errors=1)
 </t>
   </si>
@@ -11776,7 +11755,7 @@
     self.assertTrue(check_xor_sum(combination))
 AssertionError: False is not true
 ----------------------------------------------------------------------
-Ran 5 tests in 0.001s
+Ran 5 tests in 0.000s
 FAILED (failures=1)
 </t>
   </si>
@@ -11843,7 +11822,7 @@
     title = re.search(r'title\s*=\s*\{(.*?)\}', entry).group(1)
 AttributeError: 'NoneType' object has no attribute 'group'
 ----------------------------------------------------------------------
-Ran 5 tests in 0.011s
+Ran 5 tests in 0.010s
 FAILED (errors=4)
 </t>
   </si>
@@ -11858,7 +11837,7 @@
 AssertionError: '\n' != ''
 - 
 ----------------------------------------------------------------------
-Ran 4 tests in 0.017s
+Ran 4 tests in 0.005s
 FAILED (failures=1)
 </t>
   </si>
@@ -11875,7 +11854,7 @@
     sequence = list(map(int, line.strip().split()))
 ValueError: invalid literal for int() with base 10: '2,4,6,8'
 ----------------------------------------------------------------------
-Ran 1 test in 0.007s
+Ran 1 test in 0.001s
 FAILED (errors=1)
 </t>
   </si>
@@ -12054,13 +12033,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">....
-----------------------------------------------------------------------
-Ran 4 tests in 0.042s
-OK
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">F..F.
 ======================================================================
 FAIL: test_empty_string (__main__.TestFormatComment)
@@ -12097,13 +12069,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">.....
-----------------------------------------------------------------------
-Ran 5 tests in 0.031s
-OK
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Traceback (most recent call last):
   File "E:\code\code_back\python_project\RealisticEval-Data\envs\python\temp\temp.py", line 1, in &lt;module&gt;
     def average_of_levels(root: Optional[TreeNode]) -&gt; List[float]:
@@ -12128,14 +12093,14 @@
 ResourceWarning: Enable tracemalloc to get the object allocation traceback
 .
 ----------------------------------------------------------------------
-Ran 5 tests in 0.057s
+Ran 5 tests in 0.040s
 OK
 </t>
   </si>
   <si>
     <t xml:space="preserve">...
 ----------------------------------------------------------------------
-Ran 3 tests in 0.007s
+Ran 3 tests in 0.005s
 OK
 </t>
   </si>
@@ -12211,7 +12176,7 @@
  y: array([[1, 3],
        [3, 7]])
 ----------------------------------------------------------------------
-Ran 4 tests in 0.009s
+Ran 4 tests in 0.006s
 FAILED (failures=3)
 </t>
   </si>
@@ -12234,7 +12199,7 @@
     self.assertAlmostEqual(get_rotation(matrix), expected_rotation, places=6)
 AssertionError: 1.5707963267948966 != -1.5707963267948966 within 6 places (3.141592653589793 difference)
 ----------------------------------------------------------------------
-Ran 4 tests in 0.001s
+Ran 4 tests in 0.000s
 FAILED (failures=2)
 </t>
   </si>
@@ -12261,7 +12226,7 @@
     return template.format(**{k: kwargs[k] for k in kwargs if k in template})
 KeyError: 'place'
 ----------------------------------------------------------------------
-Ran 5 tests in 0.001s
+Ran 5 tests in 0.000s
 FAILED (errors=2)
 </t>
   </si>
@@ -12300,7 +12265,7 @@
 AssertionError: '' != 'example'
 + example
 ----------------------------------------------------------------------
-Ran 5 tests in 0.001s
+Ran 5 tests in 0.000s
 FAILED (failures=3)
 </t>
   </si>
@@ -12373,7 +12338,7 @@
     self.assertEqual(result, '192.168.1.10')
 AssertionError: None != '192.168.1.10'
 ----------------------------------------------------------------------
-Ran 5 tests in 0.003s
+Ran 5 tests in 0.002s
 FAILED (failures=2, errors=1)
 </t>
   </si>
@@ -12382,6 +12347,13 @@
     code_block_open = x.count("
                               ^
 SyntaxError: EOL while scanning string literal
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">....
+----------------------------------------------------------------------
+Ran 4 tests in 0.010s
+OK
 </t>
   </si>
   <si>
@@ -12534,7 +12506,7 @@
     return float(match.group(0))
 ValueError: could not convert string to float: '45.3 kg'
 ----------------------------------------------------------------------
-Ran 5 tests in 0.000s
+Ran 5 tests in 0.001s
 FAILED (errors=3)
 </t>
   </si>
@@ -12548,7 +12520,7 @@
   <si>
     <t xml:space="preserve">...
 ----------------------------------------------------------------------
-Ran 3 tests in 0.008s
+Ran 3 tests in 0.002s
 OK
 </t>
   </si>
@@ -12588,7 +12560,7 @@
 + {"I'll": 0, 'go': 1, 'park': 1, 'play': 0, "school's": 1, 'the': 1, 'to': 1}
 ?                                                        ^
 ----------------------------------------------------------------------
-Ran 4 tests in 0.002s
+Ran 4 tests in 0.001s
 FAILED (failures=3)
 </t>
   </si>
@@ -12603,6 +12575,13 @@
     <t xml:space="preserve">....
 ----------------------------------------------------------------------
 Ran 4 tests in 0.005s
+OK
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.....
+----------------------------------------------------------------------
+Ran 5 tests in 0.005s
 OK
 </t>
   </si>
@@ -12660,14 +12639,14 @@
     obj, end = self.scan_once(s, idx)
 json.decoder.JSONDecodeError: Expecting ',' delimiter: line 1 column 19 (char 18)
 ----------------------------------------------------------------------
-Ran 5 tests in 0.010s
+Ran 5 tests in 0.009s
 FAILED (errors=3)
 </t>
   </si>
   <si>
     <t xml:space="preserve">.......
 ----------------------------------------------------------------------
-Ran 7 tests in 0.002s
+Ran 7 tests in 0.003s
 OK
 </t>
   </si>
@@ -23416,7 +23395,7 @@
         <v>640</v>
       </c>
       <c r="K2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -23448,7 +23427,7 @@
         <v>640</v>
       </c>
       <c r="K3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -23480,7 +23459,7 @@
         <v>641</v>
       </c>
       <c r="K4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -23512,7 +23491,7 @@
         <v>642</v>
       </c>
       <c r="K5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -23544,7 +23523,7 @@
         <v>641</v>
       </c>
       <c r="K6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -23576,7 +23555,7 @@
         <v>640</v>
       </c>
       <c r="K7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -23608,7 +23587,7 @@
         <v>640</v>
       </c>
       <c r="K8" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -23640,7 +23619,7 @@
         <v>640</v>
       </c>
       <c r="K9" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -23672,7 +23651,7 @@
         <v>643</v>
       </c>
       <c r="K10" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -23704,7 +23683,7 @@
         <v>640</v>
       </c>
       <c r="K11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -23736,7 +23715,7 @@
         <v>640</v>
       </c>
       <c r="K12" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -23768,7 +23747,7 @@
         <v>640</v>
       </c>
       <c r="K13" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -23800,7 +23779,7 @@
         <v>644</v>
       </c>
       <c r="K14" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -23832,7 +23811,7 @@
         <v>645</v>
       </c>
       <c r="K15" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -23864,7 +23843,7 @@
         <v>640</v>
       </c>
       <c r="K16" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -23896,7 +23875,7 @@
         <v>640</v>
       </c>
       <c r="K17" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -23928,7 +23907,7 @@
         <v>646</v>
       </c>
       <c r="K18" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -23960,7 +23939,7 @@
         <v>647</v>
       </c>
       <c r="K19" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -23992,7 +23971,7 @@
         <v>641</v>
       </c>
       <c r="K20" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -24024,7 +24003,7 @@
         <v>648</v>
       </c>
       <c r="K21" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -24056,7 +24035,7 @@
         <v>641</v>
       </c>
       <c r="K22" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -24088,7 +24067,7 @@
         <v>641</v>
       </c>
       <c r="K23" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -24120,7 +24099,7 @@
         <v>649</v>
       </c>
       <c r="K24" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -24152,7 +24131,7 @@
         <v>640</v>
       </c>
       <c r="K25" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -24184,7 +24163,7 @@
         <v>640</v>
       </c>
       <c r="K26" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -24216,7 +24195,7 @@
         <v>650</v>
       </c>
       <c r="K27" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -24248,7 +24227,7 @@
         <v>640</v>
       </c>
       <c r="K28" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -24280,7 +24259,7 @@
         <v>641</v>
       </c>
       <c r="K29" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -24312,7 +24291,7 @@
         <v>640</v>
       </c>
       <c r="K30" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -24344,7 +24323,7 @@
         <v>651</v>
       </c>
       <c r="K31" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -24376,7 +24355,7 @@
         <v>641</v>
       </c>
       <c r="K32" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -24408,7 +24387,7 @@
         <v>640</v>
       </c>
       <c r="K33" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -24440,7 +24419,7 @@
         <v>641</v>
       </c>
       <c r="K34" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -24472,7 +24451,7 @@
         <v>652</v>
       </c>
       <c r="K35" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -24504,7 +24483,7 @@
         <v>640</v>
       </c>
       <c r="K36" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -24536,7 +24515,7 @@
         <v>640</v>
       </c>
       <c r="K37" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -24568,7 +24547,7 @@
         <v>653</v>
       </c>
       <c r="K38" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -24600,7 +24579,7 @@
         <v>640</v>
       </c>
       <c r="K39" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -24632,7 +24611,7 @@
         <v>654</v>
       </c>
       <c r="K40" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -24664,7 +24643,7 @@
         <v>655</v>
       </c>
       <c r="K41" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -24696,7 +24675,7 @@
         <v>642</v>
       </c>
       <c r="K42" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -24728,7 +24707,7 @@
         <v>640</v>
       </c>
       <c r="K43" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -24760,7 +24739,7 @@
         <v>656</v>
       </c>
       <c r="K44" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -24792,7 +24771,7 @@
         <v>640</v>
       </c>
       <c r="K45" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -24824,7 +24803,7 @@
         <v>657</v>
       </c>
       <c r="K46" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -24856,7 +24835,7 @@
         <v>658</v>
       </c>
       <c r="K47" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -24888,7 +24867,7 @@
         <v>651</v>
       </c>
       <c r="K48" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -24920,7 +24899,7 @@
         <v>659</v>
       </c>
       <c r="K49" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -24952,7 +24931,7 @@
         <v>641</v>
       </c>
       <c r="K50" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -24984,7 +24963,7 @@
         <v>640</v>
       </c>
       <c r="K51" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -25016,7 +24995,7 @@
         <v>660</v>
       </c>
       <c r="K52" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -25045,10 +25024,10 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="K53" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -25077,10 +25056,10 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K54" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -25112,7 +25091,7 @@
         <v>642</v>
       </c>
       <c r="K55" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -25141,10 +25120,10 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K56" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -25173,10 +25152,10 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K57" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -25208,7 +25187,7 @@
         <v>641</v>
       </c>
       <c r="K58" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -25240,7 +25219,7 @@
         <v>641</v>
       </c>
       <c r="K59" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -25269,10 +25248,10 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="K60" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -25301,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K61" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -25333,10 +25312,10 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K62" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -25368,7 +25347,7 @@
         <v>641</v>
       </c>
       <c r="K63" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -25397,10 +25376,10 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K64" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -25432,7 +25411,7 @@
         <v>640</v>
       </c>
       <c r="K65" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -25464,7 +25443,7 @@
         <v>640</v>
       </c>
       <c r="K66" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -25493,10 +25472,10 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K67" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -25528,7 +25507,7 @@
         <v>640</v>
       </c>
       <c r="K68" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -25557,10 +25536,10 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K69" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -25589,10 +25568,10 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K70" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -25621,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="K71" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -25653,10 +25632,10 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="K72" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -25688,7 +25667,7 @@
         <v>640</v>
       </c>
       <c r="K73" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -25720,7 +25699,7 @@
         <v>640</v>
       </c>
       <c r="K74" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -25749,10 +25728,10 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>674</v>
+        <v>645</v>
       </c>
       <c r="K75" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -25781,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K76" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -25813,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="K77" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -25845,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="K78" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -25880,7 +25859,7 @@
         <v>651</v>
       </c>
       <c r="K79" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -25909,10 +25888,10 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K80" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -25941,10 +25920,10 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="K81" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -25976,7 +25955,7 @@
         <v>640</v>
       </c>
       <c r="K82" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -26008,7 +25987,7 @@
         <v>641</v>
       </c>
       <c r="K83" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -26040,7 +26019,7 @@
         <v>641</v>
       </c>
       <c r="K84" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -26072,7 +26051,7 @@
         <v>640</v>
       </c>
       <c r="K85" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -26101,10 +26080,10 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K86" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -26133,10 +26112,10 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="K87" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -26168,7 +26147,7 @@
         <v>641</v>
       </c>
       <c r="K88" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -26197,10 +26176,10 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K89" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -26232,7 +26211,7 @@
         <v>642</v>
       </c>
       <c r="K90" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -26261,10 +26240,10 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K91" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -26296,7 +26275,7 @@
         <v>640</v>
       </c>
       <c r="K92" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -26325,10 +26304,10 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K93" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -26357,10 +26336,10 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K94" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -26389,10 +26368,10 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K95" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -26424,7 +26403,7 @@
         <v>640</v>
       </c>
       <c r="K96" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -26453,10 +26432,10 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="K97" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -26488,7 +26467,7 @@
         <v>641</v>
       </c>
       <c r="K98" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -26517,10 +26496,10 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="K99" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -26552,7 +26531,7 @@
         <v>640</v>
       </c>
       <c r="K100" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -26584,7 +26563,7 @@
         <v>640</v>
       </c>
       <c r="K101" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -26613,10 +26592,10 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="K102" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -26645,10 +26624,10 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="K103" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -26680,7 +26659,7 @@
         <v>641</v>
       </c>
       <c r="K104" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -26712,7 +26691,7 @@
         <v>640</v>
       </c>
       <c r="K105" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -26744,7 +26723,7 @@
         <v>642</v>
       </c>
       <c r="K106" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -26776,7 +26755,7 @@
         <v>641</v>
       </c>
       <c r="K107" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -26808,7 +26787,7 @@
         <v>640</v>
       </c>
       <c r="K108" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -26840,7 +26819,7 @@
         <v>640</v>
       </c>
       <c r="K109" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -26872,7 +26851,7 @@
         <v>640</v>
       </c>
       <c r="K110" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -26901,10 +26880,10 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="K111" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -26933,10 +26912,10 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="K112" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -26965,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K113" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -26997,10 +26976,10 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="K114" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -27032,7 +27011,7 @@
         <v>641</v>
       </c>
       <c r="K115" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -27064,7 +27043,7 @@
         <v>641</v>
       </c>
       <c r="K116" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -27096,7 +27075,7 @@
         <v>641</v>
       </c>
       <c r="K117" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -27125,10 +27104,10 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="K118" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -27160,7 +27139,7 @@
         <v>641</v>
       </c>
       <c r="K119" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -27192,7 +27171,7 @@
         <v>641</v>
       </c>
       <c r="K120" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -27221,10 +27200,10 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="K121" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -27256,7 +27235,7 @@
         <v>641</v>
       </c>
       <c r="K122" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -27288,7 +27267,7 @@
         <v>651</v>
       </c>
       <c r="K123" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -27317,10 +27296,10 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="K124" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -27352,7 +27331,7 @@
         <v>641</v>
       </c>
       <c r="K125" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -27384,7 +27363,7 @@
         <v>641</v>
       </c>
       <c r="K126" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -27413,10 +27392,10 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K127" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -27448,7 +27427,7 @@
         <v>651</v>
       </c>
       <c r="K128" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -27477,10 +27456,10 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K129" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -27509,10 +27488,10 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="K130" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -27541,10 +27520,10 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="K131" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -27576,7 +27555,7 @@
         <v>642</v>
       </c>
       <c r="K132" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -27605,10 +27584,10 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="K133" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -27640,7 +27619,7 @@
         <v>641</v>
       </c>
       <c r="K134" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -27669,10 +27648,10 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="K135" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -27701,10 +27680,10 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="K136" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -27736,7 +27715,7 @@
         <v>640</v>
       </c>
       <c r="K137" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -27765,10 +27744,10 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="K138" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -27797,10 +27776,10 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K139" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -27829,10 +27808,10 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="K140" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -27861,10 +27840,10 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>704</v>
+        <v>656</v>
       </c>
       <c r="K141" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -27896,7 +27875,7 @@
         <v>640</v>
       </c>
       <c r="K142" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -27928,7 +27907,7 @@
         <v>640</v>
       </c>
       <c r="K143" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -27957,10 +27936,10 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="K144" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -27989,10 +27968,10 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="K145" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -28021,10 +28000,10 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
       <c r="K146" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -28056,7 +28035,7 @@
         <v>640</v>
       </c>
       <c r="K147" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -28085,10 +28064,10 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="K148" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -28120,7 +28099,7 @@
         <v>640</v>
       </c>
       <c r="K149" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -28149,10 +28128,10 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="K150" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -28181,10 +28160,10 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
       <c r="K151" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -28213,10 +28192,10 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="K152" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -28248,7 +28227,7 @@
         <v>640</v>
       </c>
       <c r="K153" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -28277,10 +28256,10 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="K154" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -28309,10 +28288,10 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="K155" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -28344,7 +28323,7 @@
         <v>640</v>
       </c>
       <c r="K156" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -28376,7 +28355,7 @@
         <v>640</v>
       </c>
       <c r="K157" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -28405,10 +28384,10 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="K158" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -28440,7 +28419,7 @@
         <v>641</v>
       </c>
       <c r="K159" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -28469,10 +28448,10 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K160" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -28501,10 +28480,10 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="K161" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -28533,10 +28512,10 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="K162" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -28568,7 +28547,7 @@
         <v>651</v>
       </c>
       <c r="K163" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -28597,10 +28576,10 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="K164" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -28632,7 +28611,7 @@
         <v>640</v>
       </c>
       <c r="K165" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -28664,7 +28643,7 @@
         <v>640</v>
       </c>
       <c r="K166" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -28693,10 +28672,10 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="K167" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -28725,10 +28704,10 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="K168" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -28757,10 +28736,10 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="K169" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -28789,10 +28768,10 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="K170" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -28824,7 +28803,7 @@
         <v>641</v>
       </c>
       <c r="K171" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -28856,7 +28835,7 @@
         <v>642</v>
       </c>
       <c r="K172" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -28885,10 +28864,10 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K173" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -28917,10 +28896,10 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="K174" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -28952,7 +28931,7 @@
         <v>640</v>
       </c>
       <c r="K175" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -28981,10 +28960,10 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="K176" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -29016,7 +28995,7 @@
         <v>641</v>
       </c>
       <c r="K177" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -29048,7 +29027,7 @@
         <v>641</v>
       </c>
       <c r="K178" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -29080,7 +29059,7 @@
         <v>640</v>
       </c>
       <c r="K179" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -29112,7 +29091,7 @@
         <v>640</v>
       </c>
       <c r="K180" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -29141,10 +29120,10 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K181" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -29176,7 +29155,7 @@
         <v>640</v>
       </c>
       <c r="K182" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -29208,7 +29187,7 @@
         <v>641</v>
       </c>
       <c r="K183" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -29237,10 +29216,10 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="K184" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -29272,7 +29251,7 @@
         <v>640</v>
       </c>
       <c r="K185" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -29304,7 +29283,7 @@
         <v>641</v>
       </c>
       <c r="K186" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -29336,7 +29315,7 @@
         <v>640</v>
       </c>
       <c r="K187" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -29365,10 +29344,10 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K188" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -29397,10 +29376,10 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="K189" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -29429,10 +29408,10 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="K190" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -29464,7 +29443,7 @@
         <v>640</v>
       </c>
       <c r="K191" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -29496,7 +29475,7 @@
         <v>641</v>
       </c>
       <c r="K192" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -29528,7 +29507,7 @@
         <v>641</v>
       </c>
       <c r="K193" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -29557,10 +29536,10 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="K194" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -29589,10 +29568,10 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
       <c r="K195" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -29621,10 +29600,10 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="K196" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -29653,10 +29632,10 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="K197" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -29685,10 +29664,10 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>662</v>
+        <v>723</v>
       </c>
       <c r="K198" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -29720,7 +29699,7 @@
         <v>641</v>
       </c>
       <c r="K199" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -29752,7 +29731,7 @@
         <v>641</v>
       </c>
       <c r="K200" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -29781,10 +29760,10 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="K201" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -29813,10 +29792,10 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K202" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -29845,10 +29824,10 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="K203" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -29877,10 +29856,10 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="K204" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -29912,7 +29891,7 @@
         <v>651</v>
       </c>
       <c r="K205" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -29941,10 +29920,10 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K206" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -29976,7 +29955,7 @@
         <v>640</v>
       </c>
       <c r="K207" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -30008,7 +29987,7 @@
         <v>640</v>
       </c>
       <c r="K208" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -30040,7 +30019,7 @@
         <v>651</v>
       </c>
       <c r="K209" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -30072,7 +30051,7 @@
         <v>651</v>
       </c>
       <c r="K210" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
